--- a/SIMF/чистый бланк/ЗАКАЗ КРЫМ 03,02,25ц-выезд 05,02.xlsx
+++ b/SIMF/чистый бланк/ЗАКАЗ КРЫМ 03,02,25ц-выезд 05,02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF066C6-F10B-4583-B5F4-2A9C0F6A386D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63D77EA-A47B-405B-8379-80EDD9D3CCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$156</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="227">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>МЯСНИКС ПМ сос б/о мгс 1/160 14шт.</t>
-  </si>
-  <si>
-    <t>шт</t>
   </si>
   <si>
     <t>МЯСНЫЕ Папа может сос п/о мгс 1.5*3</t>
@@ -707,6 +704,15 @@
   </si>
   <si>
     <t>БЕКОН ДЛЯ КУЛИНАРИИ с/к с/н мгс 1*2_HRC</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.РУБЛЕНАЯ ПМ в/у срез 0.3кг 6шт.</t>
+  </si>
+  <si>
+    <t>МЯСНИКС ПМ сос б/о мгс 1/160 10шт.</t>
+  </si>
+  <si>
+    <t>СУПЕР СЫТНЫЕ ПМ сос п/о мгс 0.6кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -1885,11 +1891,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1677"/>
+  <dimension ref="A1:M1680"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H159" sqref="H159"/>
+      <pane ySplit="9" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2040,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D152,4)</f>
+        <f>RIGHT(D11:D155,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2065,7 +2071,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D153,4)</f>
+        <f>RIGHT(D12:D156,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2090,7 +2096,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D153,4)</f>
+        <f>RIGHT(D13:D156,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2114,7 +2120,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D154,4)</f>
+        <f>RIGHT(D14:D157,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2138,7 +2144,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D155,4)</f>
+        <f>RIGHT(D15:D158,4)</f>
         <v>6247</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2162,7 +2168,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D155,4)</f>
+        <f>RIGHT(D16:D158,4)</f>
         <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2192,7 +2198,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D156,4)</f>
+        <f>RIGHT(D17:D159,4)</f>
         <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2218,7 +2224,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D157,4)</f>
+        <f>RIGHT(D18:D160,4)</f>
         <v>6839</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2244,7 +2250,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D158,4)</f>
+        <f>RIGHT(D19:D161,4)</f>
         <v>6426</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2268,7 +2274,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D159,4)</f>
+        <f>RIGHT(D20:D162,4)</f>
         <v>4063</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2298,7 +2304,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D160,4)</f>
+        <f>RIGHT(D21:D163,4)</f>
         <v>6333</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2328,7 +2334,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D161,4)</f>
+        <f>RIGHT(D22:D164,4)</f>
         <v>4574</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2358,7 +2364,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D162,4)</f>
+        <f>RIGHT(D23:D165,4)</f>
         <v>6861</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2388,7 +2394,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D166,4)</f>
+        <f>RIGHT(D24:D169,4)</f>
         <v>6862</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2412,7 +2418,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D166,4)</f>
+        <f>RIGHT(D25:D169,4)</f>
         <v>6341</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2436,7 +2442,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D167,4)</f>
+        <f>RIGHT(D26:D170,4)</f>
         <v>5247</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2466,7 +2472,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D170,4)</f>
+        <f>RIGHT(D27:D173,4)</f>
         <v>4813</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2496,7 +2502,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D171,4)</f>
+        <f>RIGHT(D28:D174,4)</f>
         <v>6392</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2526,7 +2532,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D172,4)</f>
+        <f>RIGHT(D29:D175,4)</f>
         <v>6801</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2552,7 +2558,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D173,4)</f>
+        <f>RIGHT(D30:D176,4)</f>
         <v>6802</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2576,7 +2582,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D173,4)</f>
+        <f>RIGHT(D31:D176,4)</f>
         <v>5851</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2606,7 +2612,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D174,4)</f>
+        <f>RIGHT(D32:D177,4)</f>
         <v>6159</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2630,7 +2636,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D174,4)</f>
+        <f>RIGHT(D33:D177,4)</f>
         <v>6158</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2658,7 +2664,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D176,4)</f>
+        <f>RIGHT(D34:D179,4)</f>
         <v>6340</v>
       </c>
       <c r="B34" s="96" t="s">
@@ -2686,7 +2692,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D174,4)</f>
+        <f>RIGHT(D35:D177,4)</f>
         <v>6353</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2716,7 +2722,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D175,4)</f>
+        <f>RIGHT(D36:D178,4)</f>
         <v/>
       </c>
       <c r="B36" s="74" t="s">
@@ -2733,7 +2739,7 @@
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D178,4)</f>
+        <f>RIGHT(D37:D181,4)</f>
         <v>6870</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2758,7 +2764,7 @@
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D180,4)</f>
+        <f>RIGHT(D38:D183,4)</f>
         <v>7038</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2783,7 +2789,7 @@
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D181,4)</f>
+        <f>RIGHT(D39:D184,4)</f>
         <v>7040</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2810,11 +2816,11 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D180,4)</f>
+        <f>RIGHT(D40:D183,4)</f>
         <v>7075</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>23</v>
@@ -2835,11 +2841,11 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D181,4)</f>
+        <f>RIGHT(D41:D184,4)</f>
         <v>7070</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>23</v>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D179,4)</f>
+        <f>RIGHT(D42:D182,4)</f>
         <v>6253</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2885,7 +2891,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D178,4)</f>
+        <f>RIGHT(D43:D181,4)</f>
         <v>6602</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2910,7 +2916,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D181,4)</f>
+        <f>RIGHT(D44:D184,4)</f>
         <v>6768</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -2935,7 +2941,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D182,4)</f>
+        <f>RIGHT(D45:D185,4)</f>
         <v>6770</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -2960,7 +2966,7 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D185,4)</f>
+        <f>RIGHT(D46:D188,4)</f>
         <v>6829</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -2984,11 +2990,11 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D190,4)</f>
+        <f>RIGHT(D47:D193,4)</f>
         <v>7074</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>26</v>
@@ -3008,11 +3014,11 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D191,4)</f>
+        <f>RIGHT(D48:D194,4)</f>
         <v>7073</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>26</v>
@@ -3032,7 +3038,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D192,4)</f>
+        <f>RIGHT(D49:D195,4)</f>
         <v>6759</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3056,7 +3062,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D193,4)</f>
+        <f>RIGHT(D50:D196,4)</f>
         <v>6724</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3082,11 +3088,11 @@
     </row>
     <row r="51" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D194,4)</f>
+        <f>RIGHT(D51:D197,4)</f>
         <v>6616</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>26</v>
@@ -3109,14 +3115,14 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D193,4)</f>
+        <f>RIGHT(D52:D196,4)</f>
         <v>6901</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D52" s="28">
         <v>1001025526901</v>
@@ -3133,157 +3139,158 @@
       <c r="I52" s="14"/>
       <c r="J52" s="39"/>
     </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D192,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B53" s="70" t="s">
-        <v>62</v>
+        <f>RIGHT(D53:D197,4)</f>
+        <v>6962</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>225</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D53" s="28">
-        <v>1001022726303</v>
+        <v>1001025526962</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="23">
-        <v>1.0666666666666671</v>
+        <v>0.16</v>
       </c>
       <c r="G53" s="23">
-        <f>E53*1</f>
+        <f>E53*F53</f>
         <v>0</v>
       </c>
-      <c r="H53" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I53" s="14">
-        <v>45</v>
-      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
       <c r="J53" s="39"/>
       <c r="K53" s="82"/>
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D193,4)</f>
-        <v>7077</v>
+        <f>RIGHT(D54:D195,4)</f>
+        <v>6303</v>
       </c>
       <c r="B54" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D54" s="28">
-        <v>1001025507077</v>
+        <v>1001022726303</v>
       </c>
       <c r="E54" s="24"/>
-      <c r="F54" s="23"/>
+      <c r="F54" s="23">
+        <v>1.0666666666666671</v>
+      </c>
       <c r="G54" s="23">
-        <f>E54*0.4</f>
+        <f>E54*1</f>
         <v>0</v>
       </c>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="H54" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I54" s="14">
+        <v>45</v>
+      </c>
       <c r="J54" s="39"/>
       <c r="K54" s="82"/>
     </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D193,4)</f>
-        <v>7080</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>218</v>
+        <f>RIGHT(D55:D196,4)</f>
+        <v>7077</v>
+      </c>
+      <c r="B55" s="70" t="s">
+        <v>216</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="28">
-        <v>1001022467080</v>
+        <v>1001025507077</v>
       </c>
       <c r="E55" s="24"/>
-      <c r="F55" s="23">
-        <v>0.45</v>
-      </c>
+      <c r="F55" s="23"/>
       <c r="G55" s="23">
-        <f>E55*0.41</f>
+        <f>E55*0.4</f>
         <v>0</v>
       </c>
-      <c r="H55" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I55" s="14">
-        <v>45</v>
-      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="39"/>
+      <c r="K55" s="82"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D194,4)</f>
-        <v>6762</v>
+        <f>RIGHT(D56:D196,4)</f>
+        <v>7080</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="28">
-        <v>1001020846762</v>
+        <v>1001022467080</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="G56" s="23">
-        <f>E56*F56</f>
+        <f>E56*0.41</f>
         <v>0</v>
       </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
+      <c r="H56" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I56" s="14">
+        <v>45</v>
+      </c>
       <c r="J56" s="39"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D194,4)</f>
-        <v>5820</v>
+        <f>RIGHT(D57:D197,4)</f>
+        <v>6762</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>23</v>
+        <v>63</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D57" s="28">
-        <v>1001022465820</v>
+        <v>1001020846762</v>
       </c>
       <c r="E57" s="24"/>
-      <c r="F57" s="23"/>
+      <c r="F57" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G57" s="23">
-        <f>E57*1</f>
+        <f>E57*F57</f>
         <v>0</v>
       </c>
       <c r="H57" s="14"/>
-      <c r="I57" s="14">
-        <v>45</v>
-      </c>
+      <c r="I57" s="14"/>
       <c r="J57" s="39"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D195,4)</f>
-        <v>7082</v>
+        <f>RIGHT(D58:D197,4)</f>
+        <v>5820</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="C58" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="28">
-        <v>1001022467082</v>
+        <v>1001022465820</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="23"/>
@@ -3292,22 +3299,24 @@
         <v>0</v>
       </c>
       <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
+      <c r="I58" s="14">
+        <v>45</v>
+      </c>
       <c r="J58" s="39"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D196,4)</f>
-        <v>6764</v>
+        <f>RIGHT(D59:D198,4)</f>
+        <v>7082</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="28">
-        <v>1001020846764</v>
+        <v>1001022467082</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="23"/>
@@ -3321,17 +3330,17 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D198,4)</f>
-        <v>6761</v>
+        <f>RIGHT(D60:D199,4)</f>
+        <v>6764</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="28">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="23"/>
@@ -3345,17 +3354,17 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D199,4)</f>
-        <v>6767</v>
+        <f>RIGHT(D61:D201,4)</f>
+        <v>6761</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="28">
-        <v>1001023696767</v>
+        <v>1001020836761</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="23"/>
@@ -3369,22 +3378,22 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D199,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D62:D202,4)</f>
+        <v>6767</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>26</v>
+        <v>67</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D62" s="28">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23">
-        <f>E62*0.36</f>
+        <f>E62*1</f>
         <v>0</v>
       </c>
       <c r="H62" s="14"/>
@@ -3393,24 +3402,22 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D200,4)</f>
-        <v>6909</v>
+        <f>RIGHT(D63:D202,4)</f>
+        <v>6765</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="28">
-        <v>1001025766909</v>
+        <v>1001023696765</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="23">
-        <v>0.33</v>
-      </c>
+      <c r="F63" s="23"/>
       <c r="G63" s="23">
-        <f>E63*F63</f>
+        <f>E63*0.36</f>
         <v>0</v>
       </c>
       <c r="H63" s="14"/>
@@ -3419,405 +3426,408 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D199,4)</f>
-        <v>7066</v>
+        <f>RIGHT(D64:D203,4)</f>
+        <v>6909</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D64" s="28">
-        <v>1001022377066</v>
+        <v>1001025766909</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="G64" s="23">
-        <f>E64*0.41</f>
+        <f>E64*F64</f>
         <v>0</v>
       </c>
-      <c r="H64" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I64" s="14">
-        <v>45</v>
-      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
       <c r="J64" s="39"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D200,4)</f>
-        <v>6837</v>
+        <f>RIGHT(D65:D204,4)</f>
+        <v>6987</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="28">
-        <v>1001022556837</v>
+        <v>1001025886987</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="23">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G65" s="23">
-        <f>E65*0.4</f>
+        <f>E65*F65</f>
         <v>0</v>
       </c>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="39"/>
-    </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="82"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="94" t="str">
         <f>RIGHT(D66:D202,4)</f>
-        <v>6661</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>23</v>
+        <v>7066</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D66" s="28">
-        <v>1001022246661</v>
+        <v>1001022377066</v>
       </c>
       <c r="E66" s="24"/>
-      <c r="F66" s="23"/>
+      <c r="F66" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G66" s="23">
-        <f>E66*1</f>
+        <f>E66*0.41</f>
         <v>0</v>
       </c>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
+      <c r="H66" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I66" s="14">
+        <v>45</v>
+      </c>
       <c r="J66" s="39"/>
-      <c r="K66" s="82"/>
-    </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
         <f>RIGHT(D67:D203,4)</f>
-        <v>6713</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="35" t="s">
+        <v>6837</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D67" s="28">
-        <v>1001022246713</v>
+        <v>1001022556837</v>
       </c>
       <c r="E67" s="24"/>
-      <c r="F67" s="23"/>
+      <c r="F67" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G67" s="23">
-        <f>E67*0.41</f>
+        <f>E67*0.4</f>
         <v>0</v>
       </c>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="39"/>
-      <c r="K67" s="82"/>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D199,4)</f>
+        <f>RIGHT(D68:D205,4)</f>
+        <v>6661</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="28">
+        <v>1001022246661</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23">
+        <f>E68*1</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="82"/>
+    </row>
+    <row r="69" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="94" t="str">
+        <f>RIGHT(D69:D206,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23">
+        <f>E69*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="82"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="94" t="str">
+        <f>RIGHT(D70:D202,4)</f>
         <v/>
       </c>
-      <c r="B68" s="74" t="s">
+      <c r="B70" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="75"/>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="94" t="str">
+        <f>RIGHT(D71:D203,4)</f>
+        <v>5698</v>
+      </c>
+      <c r="B71" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="75"/>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D200,4)</f>
-        <v>5698</v>
-      </c>
-      <c r="B69" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="30" t="s">
+      <c r="C71" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="28">
+      <c r="D71" s="28">
         <v>1001034065698</v>
-      </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="23">
-        <v>1.013333333333333</v>
-      </c>
-      <c r="G69" s="23">
-        <f>E69*1</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="14">
-        <v>3.04</v>
-      </c>
-      <c r="I69" s="14">
-        <v>30</v>
-      </c>
-      <c r="J69" s="39"/>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D203,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23">
-        <f>E70*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="39"/>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="94" t="str">
-        <f>RIGHT(D71:D204,4)</f>
-        <v>7059</v>
-      </c>
-      <c r="B71" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="28">
-        <v>1001035277059</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23">
-        <v>0.3</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="G71" s="23">
-        <f>F71*E71</f>
+        <f>E71*1</f>
         <v>0</v>
       </c>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
+      <c r="H71" s="14">
+        <v>3.04</v>
+      </c>
+      <c r="I71" s="14">
+        <v>30</v>
+      </c>
       <c r="J71" s="39"/>
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D204,4)</f>
-        <v>6609</v>
+        <f>RIGHT(D72:D206,4)</f>
+        <v>6528</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D72" s="28">
-        <v>1001033856609</v>
+        <v>1001031076528</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F72" s="23"/>
       <c r="G72" s="23">
-        <f>F72*E72</f>
+        <f>E72*0.4</f>
         <v>0</v>
       </c>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D205,4)</f>
-        <v>7001</v>
+        <f>RIGHT(D73:D207,4)</f>
+        <v>7059</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D73" s="28">
-        <v>1001035937001</v>
+        <v>1001035277059</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="23">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G73" s="23">
-        <f>E73</f>
+        <f>F73*E73</f>
         <v>0</v>
       </c>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="39"/>
-      <c r="K73" s="82"/>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D205,4)</f>
-        <v>6527</v>
+        <f>RIGHT(D74:D207,4)</f>
+        <v>6609</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>23</v>
+        <v>76</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D74" s="28">
-        <v>1001031076527</v>
+        <v>1001033856609</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="23">
-        <v>1.0166666666666671</v>
+        <v>0.4</v>
       </c>
       <c r="G74" s="23">
-        <f>E74*1</f>
+        <f>F74*E74</f>
         <v>0</v>
       </c>
-      <c r="H74" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I74" s="14">
-        <v>30</v>
-      </c>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D206,4)</f>
-        <v/>
-      </c>
-      <c r="B75" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="74"/>
-      <c r="H75" s="74"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="75"/>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D75:D208,4)</f>
+        <v>7001</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="28">
+        <v>1001035937001</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="23">
+        <v>1</v>
+      </c>
+      <c r="G75" s="23">
+        <f>E75</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="82"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D207,4)</f>
-        <v>6666</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D76:D208,4)</f>
+        <v>6527</v>
+      </c>
+      <c r="B76" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D76" s="28">
-        <v>1001302276666</v>
+        <v>1001031076527</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23">
-        <v>0.28000000000000003</v>
+        <v>1.0166666666666671</v>
       </c>
       <c r="G76" s="23">
-        <f>E76*0.28</f>
+        <f>E76*1</f>
         <v>0</v>
       </c>
       <c r="H76" s="14">
-        <v>2.2400000000000002</v>
+        <v>3.05</v>
       </c>
       <c r="I76" s="14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D208,4)</f>
-        <v>6785</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="28">
-        <v>1001300516785</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23">
-        <f>E77*0.33</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="39"/>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D77:D209,4)</f>
+        <v/>
+      </c>
+      <c r="B77" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="75"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D209,4)</f>
-        <v>6415</v>
+        <f>RIGHT(D78:D210,4)</f>
+        <v>6666</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="28">
-        <v>1001303636415</v>
+        <v>1001302276666</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23">
-        <v>0.84</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G78" s="23">
-        <f>F78*E78</f>
+        <f>E78*0.28</f>
         <v>0</v>
       </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
+      <c r="H78" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I78" s="14">
+        <v>45</v>
+      </c>
       <c r="J78" s="39"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="94" t="str">
-        <f>RIGHT(D79:D209,4)</f>
-        <v>6786</v>
+        <f>RIGHT(D79:D211,4)</f>
+        <v>6785</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D79" s="28">
-        <v>1001300516786</v>
+        <v>1001300516785</v>
       </c>
       <c r="E79" s="24"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23">
-        <f>E79</f>
+        <f>E79*0.33</f>
         <v>0</v>
       </c>
       <c r="H79" s="14"/>
@@ -3826,22 +3836,24 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D210,4)</f>
-        <v>4903</v>
+        <f>RIGHT(D80:D212,4)</f>
+        <v>6415</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D80" s="28">
-        <v>1001040434903</v>
+        <v>1001303636415</v>
       </c>
       <c r="E80" s="24"/>
-      <c r="F80" s="23"/>
+      <c r="F80" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G80" s="23">
-        <f>E80</f>
+        <f>F80*E80</f>
         <v>0</v>
       </c>
       <c r="H80" s="14"/>
@@ -3850,17 +3862,17 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D210,4)</f>
-        <v>6794</v>
+        <f>RIGHT(D81:D212,4)</f>
+        <v>6786</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="28">
-        <v>1001303636794</v>
+        <v>1001300516786</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23"/>
@@ -3869,149 +3881,149 @@
         <v>0</v>
       </c>
       <c r="H81" s="14"/>
-      <c r="I81" s="14">
+      <c r="I81" s="14"/>
+      <c r="J81" s="39"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="94" t="str">
+        <f>RIGHT(D82:D213,4)</f>
+        <v>4903</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="28">
+        <v>1001040434903</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23">
+        <f>E82</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="39"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="94" t="str">
+        <f>RIGHT(D83:D213,4)</f>
+        <v>6794</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="28">
+        <v>1001303636794</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23">
+        <f>E83</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14">
         <v>45</v>
       </c>
-      <c r="J81" s="39"/>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="94" t="str">
-        <f>RIGHT(D82:D208,4)</f>
+      <c r="J83" s="39"/>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="94" t="str">
+        <f>RIGHT(D84:D211,4)</f>
         <v>6773</v>
       </c>
-      <c r="B82" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="28">
-        <v>1001303106773</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G82" s="23">
-        <f>E82*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I82" s="14">
-        <v>45</v>
-      </c>
-      <c r="J82" s="39"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D211,4)</f>
-        <v/>
-      </c>
-      <c r="B83" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="74"/>
-      <c r="J83" s="75"/>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="94" t="str">
-        <f>RIGHT(D84:D212,4)</f>
-        <v>6683</v>
-      </c>
       <c r="B84" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D84" s="28">
-        <v>1001300386683</v>
+        <v>1001303106773</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="23">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G84" s="23">
-        <f>E84*0.35</f>
+        <f>E84*0.28</f>
         <v>0</v>
       </c>
       <c r="H84" s="14">
-        <v>2.8</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="I84" s="14">
         <v>45</v>
       </c>
       <c r="J84" s="39"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="94" t="str">
         <f>RIGHT(D85:D214,4)</f>
-        <v>6793</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="28">
-        <v>1001303636793</v>
-      </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23">
-        <f>E85*0.33</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="39"/>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B85" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="74"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="75"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
         <f>RIGHT(D86:D215,4)</f>
-        <v>6795</v>
+        <v>6683</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="28">
-        <v>1001302596795</v>
+        <v>1001300386683</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="23"/>
+      <c r="F86" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G86" s="23">
-        <f>E86*0.33</f>
+        <f>E86*0.35</f>
         <v>0</v>
       </c>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
+      <c r="H86" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I86" s="14">
+        <v>45</v>
+      </c>
       <c r="J86" s="39"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D215,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D87:D217,4)</f>
+        <v>6793</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="28">
-        <v>1001300366807</v>
+        <v>1001303636793</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="23"/>
@@ -4025,47 +4037,41 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
-        <f>RIGHT(D88:D215,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D88:D218,4)</f>
+        <v>6795</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="28">
-        <v>1001304506684</v>
+        <v>1001302596795</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F88" s="23"/>
       <c r="G88" s="23">
-        <f>E88*0.28</f>
+        <f>E88*0.33</f>
         <v>0</v>
       </c>
-      <c r="H88" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I88" s="14">
-        <v>45</v>
-      </c>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
-        <f>RIGHT(D89:D217,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D89:D218,4)</f>
+        <v>6807</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D89" s="28">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23"/>
@@ -4080,45 +4086,51 @@
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
         <f>RIGHT(D90:D218,4)</f>
-        <v>6788</v>
+        <v>6684</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D90" s="28">
-        <v>1001300456788</v>
+        <v>1001304506684</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="23"/>
+      <c r="F90" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G90" s="23">
-        <f>E90*1</f>
+        <f>E90*0.28</f>
         <v>0</v>
       </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="H90" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I90" s="14">
+        <v>45</v>
+      </c>
       <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
-        <f>RIGHT(D91:D219,4)</f>
-        <v>6790</v>
+        <f>RIGHT(D91:D220,4)</f>
+        <v>6787</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D91" s="28">
-        <v>1001300366790</v>
+        <v>1001300456787</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23"/>
       <c r="G91" s="23">
-        <f>E91*1</f>
+        <f>E91*0.33</f>
         <v>0</v>
       </c>
       <c r="H91" s="14"/>
@@ -4127,52 +4139,46 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D218,4)</f>
-        <v>6689</v>
-      </c>
-      <c r="B92" s="64" t="s">
-        <v>96</v>
+        <f>RIGHT(D92:D221,4)</f>
+        <v>6788</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D92" s="28">
-        <v>1001303986689</v>
+        <v>1001300456788</v>
       </c>
       <c r="E92" s="24"/>
-      <c r="F92" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F92" s="23"/>
       <c r="G92" s="23">
-        <f>E92*0.35</f>
+        <f>E92*1</f>
         <v>0</v>
       </c>
-      <c r="H92" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I92" s="14">
-        <v>45</v>
-      </c>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
       <c r="J92" s="39"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
-        <f>RIGHT(D93:D219,4)</f>
-        <v>6791</v>
-      </c>
-      <c r="B93" s="64" t="s">
-        <v>97</v>
+        <f>RIGHT(D93:D222,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D93" s="28">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23">
-        <f>E93*0.33</f>
+        <f>E93*1</f>
         <v>0</v>
       </c>
       <c r="H93" s="14"/>
@@ -4181,28 +4187,28 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
-        <f>RIGHT(D94:D220,4)</f>
-        <v>5341</v>
+        <f>RIGHT(D94:D221,4)</f>
+        <v>6689</v>
       </c>
       <c r="B94" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>23</v>
+        <v>95</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D94" s="28">
-        <v>1001053985341</v>
+        <v>1001303986689</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="23">
-        <v>0.71250000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="G94" s="23">
-        <f>E94*1</f>
+        <f>E94*0.35</f>
         <v>0</v>
       </c>
       <c r="H94" s="14">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="I94" s="14">
         <v>45</v>
@@ -4211,24 +4217,22 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="94" t="str">
-        <f>RIGHT(D95:D221,4)</f>
-        <v>6459</v>
+        <f>RIGHT(D95:D222,4)</f>
+        <v>6791</v>
       </c>
       <c r="B95" s="64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="28">
-        <v>1001214196459</v>
+        <v>1001304096791</v>
       </c>
       <c r="E95" s="24"/>
-      <c r="F95" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F95" s="23"/>
       <c r="G95" s="23">
-        <f>E95*F95</f>
+        <f>E95*0.33</f>
         <v>0</v>
       </c>
       <c r="H95" s="14"/>
@@ -4237,46 +4241,54 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="94" t="str">
-        <f>RIGHT(D96:D222,4)</f>
-        <v>6586</v>
+        <f>RIGHT(D96:D223,4)</f>
+        <v>5341</v>
       </c>
       <c r="B96" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>26</v>
+        <v>97</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D96" s="28">
-        <v>1001215576586</v>
+        <v>1001053985341</v>
       </c>
       <c r="E96" s="24"/>
-      <c r="F96" s="23"/>
+      <c r="F96" s="23">
+        <v>0.71250000000000002</v>
+      </c>
       <c r="G96" s="23">
-        <f>E96*0.09</f>
+        <f>E96*1</f>
         <v>0</v>
       </c>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
+      <c r="H96" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="I96" s="14">
+        <v>45</v>
+      </c>
       <c r="J96" s="39"/>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="94" t="str">
-        <f>RIGHT(D97:D220,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D97:D224,4)</f>
+        <v>6459</v>
       </c>
       <c r="B97" s="64" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="28">
-        <v>1001225416228</v>
+        <v>1001214196459</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="23"/>
+      <c r="F97" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G97" s="23">
-        <f>E97*0.09</f>
+        <f>E97*F97</f>
         <v>0</v>
       </c>
       <c r="H97" s="14"/>
@@ -4285,293 +4297,291 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
-        <f>RIGHT(D98:D220,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B98" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D98:D225,4)</f>
+        <v>6586</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D98" s="28">
-        <v>1001051875544</v>
+        <v>1001215576586</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="23">
-        <v>0.85</v>
-      </c>
+      <c r="F98" s="23"/>
       <c r="G98" s="23">
-        <f>E98*1</f>
+        <f>E98*0.09</f>
         <v>0</v>
       </c>
-      <c r="H98" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I98" s="14">
-        <v>45</v>
-      </c>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
       <c r="J98" s="39"/>
     </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
-        <f>RIGHT(D99:D222,4)</f>
-        <v>6697</v>
-      </c>
-      <c r="B99" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="36" t="s">
+        <f>RIGHT(D99:D223,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B99" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="28">
-        <v>1001301876697</v>
+        <v>1001225416228</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F99" s="23"/>
       <c r="G99" s="23">
-        <f>E99*0.35</f>
+        <f>E99*0.09</f>
         <v>0</v>
       </c>
-      <c r="H99" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I99" s="14">
-        <v>45</v>
-      </c>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
       <c r="J99" s="39"/>
     </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
         <f>RIGHT(D100:D223,4)</f>
-        <v/>
-      </c>
-      <c r="B100" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="75"/>
-    </row>
-    <row r="101" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>5544</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="28">
+        <v>1001051875544</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="G100" s="23">
+        <f>E100*1</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I100" s="14">
+        <v>45</v>
+      </c>
+      <c r="J100" s="39"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D224,4)</f>
-        <v>5706</v>
+        <f>RIGHT(D101:D225,4)</f>
+        <v>6697</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="28">
-        <v>1001061975706</v>
+        <v>1001301876697</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="23">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="G101" s="23">
-        <f>E101*0.25</f>
+        <f>E101*0.35</f>
         <v>0</v>
       </c>
       <c r="H101" s="14">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="I101" s="14">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="J101" s="39"/>
     </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="94" t="str">
-        <f>RIGHT(D102:D225,4)</f>
-        <v>6454</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102" s="28">
-        <v>1001201976454</v>
-      </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="G102" s="23">
-        <f>E102*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I102" s="14">
-        <v>60</v>
-      </c>
-      <c r="J102" s="39"/>
-    </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D102:D226,4)</f>
+        <v/>
+      </c>
+      <c r="B102" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="75"/>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D226,4)</f>
-        <v>6222</v>
+        <f>RIGHT(D103:D227,4)</f>
+        <v>5706</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D103" s="28">
-        <v>1001205386222</v>
+        <v>1001061975706</v>
       </c>
       <c r="E103" s="24"/>
-      <c r="F103" s="23"/>
+      <c r="F103" s="23">
+        <v>0.25</v>
+      </c>
       <c r="G103" s="23">
-        <f>E103*0.09</f>
+        <f>E103*0.25</f>
         <v>0</v>
       </c>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
+      <c r="H103" s="14">
+        <v>2</v>
+      </c>
+      <c r="I103" s="14">
+        <v>120</v>
+      </c>
       <c r="J103" s="39"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
-        <f>RIGHT(D104:D227,4)</f>
-        <v>5931</v>
+        <f>RIGHT(D104:D228,4)</f>
+        <v>6454</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D104" s="28">
-        <v>1001060755931</v>
+        <v>1001201976454</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="G104" s="23">
-        <f>E104*0.22</f>
+        <f>E104*0.1</f>
         <v>0</v>
       </c>
       <c r="H104" s="14">
-        <v>1.76</v>
+        <v>0.8</v>
       </c>
       <c r="I104" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J104" s="39"/>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="94" t="str">
         <f>RIGHT(D105:D229,4)</f>
-        <v>5708</v>
+        <v>6222</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>23</v>
+        <v>106</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D105" s="28">
-        <v>1001063145708</v>
+        <v>1001205386222</v>
       </c>
       <c r="E105" s="24"/>
-      <c r="F105" s="23">
-        <v>0.51249999999999996</v>
-      </c>
+      <c r="F105" s="23"/>
       <c r="G105" s="23">
-        <f>E105*1</f>
+        <f>E105*0.09</f>
         <v>0</v>
       </c>
-      <c r="H105" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I105" s="14">
-        <v>120</v>
-      </c>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
       <c r="J105" s="39"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="str">
         <f>RIGHT(D106:D230,4)</f>
-        <v>1146</v>
+        <v>5931</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>23</v>
+        <v>107</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D106" s="28">
-        <v>1001061971146</v>
+        <v>1001060755931</v>
       </c>
       <c r="E106" s="24"/>
-      <c r="F106" s="23"/>
+      <c r="F106" s="23">
+        <v>0.22</v>
+      </c>
       <c r="G106" s="23">
-        <f>E106</f>
+        <f>E106*0.22</f>
         <v>0</v>
       </c>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
+      <c r="H106" s="14">
+        <v>1.76</v>
+      </c>
+      <c r="I106" s="14">
+        <v>120</v>
+      </c>
       <c r="J106" s="39"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
-        <f>RIGHT(D107:D230,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D107:D232,4)</f>
+        <v>5708</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>26</v>
+        <v>108</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D107" s="28">
-        <v>1001203146834</v>
+        <v>1001063145708</v>
       </c>
       <c r="E107" s="24"/>
-      <c r="F107" s="23"/>
+      <c r="F107" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G107" s="23">
-        <f>E107*0.1</f>
+        <f>E107*1</f>
         <v>0</v>
       </c>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
+      <c r="H107" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I107" s="14">
+        <v>120</v>
+      </c>
       <c r="J107" s="39"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="94" t="str">
-        <f>RIGHT(D108:D231,4)</f>
-        <v>6448</v>
+        <f>RIGHT(D108:D233,4)</f>
+        <v>1146</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="33" t="s">
-        <v>26</v>
+        <v>109</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D108" s="28">
-        <v>1001234146448</v>
+        <v>1001061971146</v>
       </c>
       <c r="E108" s="24"/>
-      <c r="F108" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F108" s="23"/>
       <c r="G108" s="23">
-        <f>F108*E108</f>
+        <f>E108</f>
         <v>0</v>
       </c>
       <c r="H108" s="14"/>
@@ -4580,24 +4590,22 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
-        <f>RIGHT(D109:D232,4)</f>
-        <v>6221</v>
+        <f>RIGHT(D109:D233,4)</f>
+        <v>6834</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="28">
-        <v>1001205376221</v>
+        <v>1001203146834</v>
       </c>
       <c r="E109" s="24"/>
-      <c r="F109" s="23">
-        <v>0.09</v>
-      </c>
+      <c r="F109" s="23"/>
       <c r="G109" s="23">
-        <f>F109*E109</f>
+        <f>E109*0.1</f>
         <v>0</v>
       </c>
       <c r="H109" s="14"/>
@@ -4606,21 +4614,21 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="str">
-        <f>RIGHT(D110:D232,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D110:D234,4)</f>
+        <v>6448</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D110" s="28">
-        <v>1001190765679</v>
+        <v>1001234146448</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="23">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G110" s="23">
         <f>F110*E110</f>
@@ -4632,51 +4640,47 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="94" t="str">
-        <f>RIGHT(D111:D234,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D111:D235,4)</f>
+        <v>6221</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C111" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D111" s="28">
-        <v>1001060764993</v>
+        <v>1001205376221</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="23">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="G111" s="23">
-        <f>E111*0.25</f>
+        <f>F111*E111</f>
         <v>0</v>
       </c>
-      <c r="H111" s="14">
-        <v>2</v>
-      </c>
-      <c r="I111" s="14">
-        <v>120</v>
-      </c>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
       <c r="J111" s="39"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="94" t="str">
         <f>RIGHT(D112:D235,4)</f>
-        <v>3684</v>
+        <v>5679</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C112" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D112" s="28">
-        <v>1001062353684</v>
+        <v>1001190765679</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G112" s="23">
         <f>F112*E112</f>
@@ -4686,442 +4690,447 @@
       <c r="I112" s="14"/>
       <c r="J112" s="39"/>
     </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="94" t="str">
-        <f>RIGHT(D113:D235,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D113:D237,4)</f>
+        <v>4993</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D113" s="28">
-        <v>1001193115682</v>
+        <v>1001060764993</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G113" s="23">
-        <f>E113*0.12</f>
+        <f>E113*0.25</f>
         <v>0</v>
       </c>
       <c r="H113" s="14">
-        <v>0.96</v>
+        <v>2</v>
       </c>
       <c r="I113" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J113" s="39"/>
     </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="94" t="str">
         <f>RIGHT(D114:D238,4)</f>
-        <v>4117</v>
+        <v>3684</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>23</v>
+        <v>115</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D114" s="28">
-        <v>1001062504117</v>
+        <v>1001062353684</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G114" s="23">
-        <f>E114*1</f>
+        <f>F114*E114</f>
         <v>0</v>
       </c>
-      <c r="H114" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="I114" s="14">
-        <v>120</v>
-      </c>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
       <c r="J114" s="39"/>
     </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
-        <f>RIGHT(D115:D239,4)</f>
-        <v>3680</v>
+        <f>RIGHT(D115:D238,4)</f>
+        <v>5682</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C115" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="28">
+        <v>1001193115682</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="G115" s="23">
+        <f>E115*0.12</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="I115" s="14">
+        <v>60</v>
+      </c>
+      <c r="J115" s="39"/>
+    </row>
+    <row r="116" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="94" t="str">
+        <f>RIGHT(D116:D241,4)</f>
+        <v>4117</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="28">
-        <v>1001062353680</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23">
-        <f>E115</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="39"/>
-    </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="94" t="str">
-        <f>RIGHT(D116:D239,4)</f>
-        <v>5483</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>26</v>
-      </c>
       <c r="D116" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G116" s="23">
-        <f>E116*0.25</f>
+        <f>E116*1</f>
         <v>0</v>
       </c>
       <c r="H116" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I116" s="14">
         <v>120</v>
       </c>
       <c r="J116" s="39"/>
     </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="94" t="str">
-        <f>RIGHT(D117:D240,4)</f>
+        <f>RIGHT(D117:D242,4)</f>
+        <v>3680</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="28">
+        <v>1001062353680</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23">
+        <f>E117</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="39"/>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="94" t="str">
+        <f>RIGHT(D118:D242,4)</f>
+        <v>5483</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="28">
+        <v>1001062505483</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G118" s="23">
+        <f>E118*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="14">
+        <v>2</v>
+      </c>
+      <c r="I118" s="14">
+        <v>120</v>
+      </c>
+      <c r="J118" s="39"/>
+    </row>
+    <row r="119" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="94" t="str">
+        <f>RIGHT(D119:D243,4)</f>
         <v>6453</v>
       </c>
-      <c r="B117" s="27" t="s">
+      <c r="B119" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G119" s="23">
+        <f>E119*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I119" s="14">
+        <v>60</v>
+      </c>
+      <c r="J119" s="39"/>
+    </row>
+    <row r="120" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="94" t="str">
+        <f>RIGHT(D120:D244,4)</f>
+        <v/>
+      </c>
+      <c r="B120" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="28">
-        <v>1001202506453</v>
-      </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="G117" s="23">
-        <f>E117*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="H117" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I117" s="14">
-        <v>60</v>
-      </c>
-      <c r="J117" s="39"/>
-    </row>
-    <row r="118" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="94" t="str">
-        <f>RIGHT(D118:D241,4)</f>
-        <v/>
-      </c>
-      <c r="B118" s="74" t="s">
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="73"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="75"/>
+    </row>
+    <row r="121" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="94" t="str">
+        <f>RIGHT(D121:D248,4)</f>
+        <v>6470</v>
+      </c>
+      <c r="B121" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C118" s="74"/>
-      <c r="D118" s="74"/>
-      <c r="E118" s="74"/>
-      <c r="F118" s="73"/>
-      <c r="G118" s="74"/>
-      <c r="H118" s="74"/>
-      <c r="I118" s="74"/>
-      <c r="J118" s="75"/>
-    </row>
-    <row r="119" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="94" t="str">
-        <f>RIGHT(D119:D245,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="32" t="s">
+      <c r="C121" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D119" s="80">
+      <c r="D121" s="80">
         <v>1001092436470</v>
       </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23">
-        <f>E119*1</f>
-        <v>0</v>
-      </c>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="39"/>
-    </row>
-    <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="94" t="str">
-        <f>RIGHT(D120:D246,4)</f>
-        <v>6495</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120" s="80">
-        <v>1001092436495</v>
-      </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G120" s="23">
-        <f>F120*E120</f>
-        <v>0</v>
-      </c>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="39"/>
-    </row>
-    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="94" t="str">
-        <f>RIGHT(D121:D247,4)</f>
-        <v>7035</v>
-      </c>
-      <c r="B121" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D121" s="80">
-        <v>1001095227035</v>
-      </c>
       <c r="E121" s="24"/>
-      <c r="F121" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F121" s="23"/>
       <c r="G121" s="23">
-        <f>F121*E121</f>
+        <f>E121*1</f>
         <v>0</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="39"/>
     </row>
-    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="94" t="str">
-        <f>RIGHT(D122:D246,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D122:D249,4)</f>
+        <v>6495</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D122" s="80">
-        <v>1001095716866</v>
+        <v>1001092436495</v>
       </c>
       <c r="E122" s="24"/>
-      <c r="F122" s="23"/>
+      <c r="F122" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G122" s="23">
-        <f>E122*1</f>
+        <f>F122*E122</f>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="39"/>
     </row>
-    <row r="123" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="94" t="str">
-        <f>RIGHT(D123:D243,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" s="37" t="s">
+        <f>RIGHT(D123:D250,4)</f>
+        <v>7035</v>
+      </c>
+      <c r="B123" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D123" s="51">
-        <v>1001094053215</v>
+      <c r="D123" s="80">
+        <v>1001095227035</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="G123" s="23">
-        <f>E123*0.4</f>
+        <f>F123*E123</f>
         <v>0</v>
       </c>
-      <c r="H123" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I123" s="14">
-        <v>60</v>
-      </c>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
       <c r="J123" s="39"/>
     </row>
-    <row r="124" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="94" t="str">
-        <f>RIGHT(D124:D246,4)</f>
-        <v/>
-      </c>
-      <c r="B124" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="C124" s="74"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="74"/>
-      <c r="F124" s="73"/>
-      <c r="G124" s="74"/>
-      <c r="H124" s="74"/>
-      <c r="I124" s="74"/>
-      <c r="J124" s="75"/>
-    </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D124:D251,4)</f>
+        <v>6411</v>
+      </c>
+      <c r="B124" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="80">
+        <v>1001093316411</v>
+      </c>
+      <c r="E124" s="24"/>
+      <c r="F124" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G124" s="23">
+        <f>F124*E124</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="39"/>
+      <c r="K124" s="82"/>
+    </row>
+    <row r="125" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="94" t="str">
         <f>RIGHT(D125:D249,4)</f>
-        <v>6206</v>
-      </c>
-      <c r="B125" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C125" s="35" t="s">
+        <v>6866</v>
+      </c>
+      <c r="B125" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="80">
+        <v>1001095716866</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23">
+        <f>E125*1</f>
+        <v>0</v>
+      </c>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="39"/>
+    </row>
+    <row r="126" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="94" t="str">
+        <f>RIGHT(D126:D246,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D125" s="28">
-        <v>1001084216206</v>
-      </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G125" s="23">
-        <f>E125*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="H125" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="I125" s="14">
-        <v>30</v>
-      </c>
-      <c r="J125" s="39"/>
-    </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="94" t="str">
-        <f>RIGHT(D126:D250,4)</f>
-        <v>4691</v>
-      </c>
-      <c r="B126" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C126" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D126" s="28">
-        <v>1001083424691</v>
+      <c r="D126" s="51">
+        <v>1001094053215</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G126" s="23">
-        <f t="shared" ref="G126:G134" si="0">F126*E126</f>
+        <f>E126*0.4</f>
         <v>0</v>
       </c>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="93"/>
-    </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I126" s="14">
+        <v>60</v>
+      </c>
+      <c r="J126" s="39"/>
+    </row>
+    <row r="127" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="94" t="str">
-        <f>RIGHT(D127:D251,4)</f>
-        <v>6200</v>
-      </c>
-      <c r="B127" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C127" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D127" s="28">
-        <v>1001085636200</v>
-      </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G127" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="93"/>
-    </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D127:D249,4)</f>
+        <v/>
+      </c>
+      <c r="B127" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="74"/>
+      <c r="I127" s="74"/>
+      <c r="J127" s="75"/>
+    </row>
+    <row r="128" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A128" s="94" t="str">
         <f>RIGHT(D128:D252,4)</f>
-        <v>6201</v>
+        <v>6206</v>
       </c>
       <c r="B128" s="47" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C128" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001225636201</v>
+        <v>1001084216206</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G128" s="23">
-        <f t="shared" si="0"/>
+        <f>E128*0.3</f>
         <v>0</v>
       </c>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="93"/>
+      <c r="H128" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I128" s="14">
+        <v>30</v>
+      </c>
+      <c r="J128" s="39"/>
     </row>
     <row r="129" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="94" t="str">
-        <f>RIGHT(D129:D252,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D129:D253,4)</f>
+        <v>4691</v>
       </c>
       <c r="B129" s="47" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C129" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001080216842</v>
+        <v>1001083424691</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
         <v>0.3</v>
       </c>
       <c r="G129" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G129:G137" si="0">F129*E129</f>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
@@ -5130,17 +5139,17 @@
     </row>
     <row r="130" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="94" t="str">
-        <f>RIGHT(D130:D252,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D130:D254,4)</f>
+        <v>6200</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C130" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1001084226492</v>
+        <v>1001085636200</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
@@ -5156,17 +5165,17 @@
     </row>
     <row r="131" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="94" t="str">
-        <f>RIGHT(D131:D250,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D131:D255,4)</f>
+        <v>6201</v>
       </c>
       <c r="B131" s="47" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C131" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="28">
-        <v>1001220286279</v>
+        <v>1001225636201</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23">
@@ -5182,21 +5191,21 @@
     </row>
     <row r="132" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="94" t="str">
-        <f>RIGHT(D132:D251,4)</f>
-        <v>4786</v>
+        <f>RIGHT(D132:D255,4)</f>
+        <v>6842</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C132" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="28">
-        <v>1001053944786</v>
+        <v>1001080216842</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.3</v>
       </c>
       <c r="G132" s="23">
         <f t="shared" si="0"/>
@@ -5206,50 +5215,49 @@
       <c r="I132" s="14"/>
       <c r="J132" s="93"/>
     </row>
-    <row r="133" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="94" t="str">
-        <f>RIGHT(D133:D252,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D133:D255,4)</f>
+        <v>6492</v>
       </c>
       <c r="B133" s="47" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D133" s="28">
-        <v>1001223297053</v>
+        <v>1001084226492</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G133" s="23">
-        <f>E133</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="93"/>
-      <c r="K133" s="82"/>
     </row>
     <row r="134" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="94" t="str">
-        <f>RIGHT(D134:D252,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B134" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="C134" s="33" t="s">
+        <f>RIGHT(D134:D253,4)</f>
+        <v>6279</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="28">
-        <v>1001223297092</v>
+        <v>1001220286279</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G134" s="23">
         <f t="shared" si="0"/>
@@ -5257,510 +5265,559 @@
       </c>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
-      <c r="J134" s="39"/>
-    </row>
-    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J134" s="93"/>
+    </row>
+    <row r="135" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="94" t="str">
-        <f>RIGHT(D135:D250,4)</f>
-        <v>6919</v>
+        <f>RIGHT(D135:D254,4)</f>
+        <v>4786</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C135" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="28">
-        <v>1001223296919</v>
+        <v>1001053944786</v>
       </c>
       <c r="E135" s="24"/>
-      <c r="F135" s="23"/>
+      <c r="F135" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="G135" s="23">
-        <f>E135*0.18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="93"/>
     </row>
-    <row r="136" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="94" t="str">
-        <f>RIGHT(D136:D251,4)</f>
+        <f>RIGHT(D136:D255,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="28">
+        <v>1001223297053</v>
+      </c>
+      <c r="E136" s="24"/>
+      <c r="F136" s="23">
+        <v>1</v>
+      </c>
+      <c r="G136" s="23">
+        <f>E136</f>
+        <v>0</v>
+      </c>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="93"/>
+      <c r="K136" s="82"/>
+    </row>
+    <row r="137" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="94" t="str">
+        <f>RIGHT(D137:D255,4)</f>
+        <v>7092</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="28">
+        <v>1001223297092</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G137" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="39"/>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="94" t="str">
+        <f>RIGHT(D138:D253,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B138" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23">
+        <f>E138*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="93"/>
+    </row>
+    <row r="139" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="94" t="str">
+        <f>RIGHT(D139:D254,4)</f>
         <v/>
       </c>
-      <c r="B136" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C136" s="74"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="74"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="74"/>
-      <c r="H136" s="74"/>
-      <c r="I136" s="74"/>
-      <c r="J136" s="75"/>
-    </row>
-    <row r="137" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="94" t="str">
-        <f>RIGHT(D137:D254,4)</f>
-        <v/>
-      </c>
-      <c r="B137" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
-      <c r="J137" s="75"/>
-    </row>
-    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="94" t="str">
-        <f>RIGHT(D138:D255,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B138" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D138" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G138" s="23">
-        <f>E138*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H138" s="14">
-        <v>8</v>
-      </c>
-      <c r="I138" s="72">
-        <v>120</v>
-      </c>
-      <c r="J138" s="39"/>
-    </row>
-    <row r="139" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="94" t="str">
-        <f>RIGHT(D139:D256,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B139" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="23"/>
-      <c r="G139" s="23">
-        <f>E139*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H139" s="14"/>
-      <c r="I139" s="72"/>
-      <c r="J139" s="39"/>
-    </row>
-    <row r="140" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" s="74"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="74"/>
+      <c r="H139" s="74"/>
+      <c r="I139" s="74"/>
+      <c r="J139" s="75"/>
+    </row>
+    <row r="140" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="94" t="str">
         <f>RIGHT(D140:D257,4)</f>
-        <v>6157</v>
-      </c>
-      <c r="B140" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="C140" s="33" t="s">
+        <v/>
+      </c>
+      <c r="B140" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" s="74"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="73"/>
+      <c r="G140" s="74"/>
+      <c r="H140" s="74"/>
+      <c r="I140" s="74"/>
+      <c r="J140" s="75"/>
+    </row>
+    <row r="141" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="94" t="str">
+        <f>RIGHT(D141:D258,4)</f>
+        <v>6314</v>
+      </c>
+      <c r="B141" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C141" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="28">
-        <v>1002115056157</v>
-      </c>
-      <c r="E140" s="24"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="23">
-        <f>E140*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H140" s="14"/>
-      <c r="I140" s="72"/>
-      <c r="J140" s="39"/>
-    </row>
-    <row r="141" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="94" t="str">
-        <f t="shared" ref="A141:A152" si="1">RIGHT(D141:D256,4)</f>
-        <v>6313</v>
-      </c>
-      <c r="B141" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C141" s="36" t="s">
-        <v>26</v>
-      </c>
       <c r="D141" s="28">
-        <v>1002112606313</v>
+        <v>1002112606314</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G141" s="23">
-        <f>E141*0.9</f>
+        <f>E141*0.5</f>
         <v>0</v>
       </c>
       <c r="H141" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I141" s="72">
         <v>120</v>
       </c>
       <c r="J141" s="39"/>
     </row>
-    <row r="142" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="94" t="str">
+        <f>RIGHT(D142:D259,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B142" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E142" s="24"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23">
+        <f>E142*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H142" s="14"/>
+      <c r="I142" s="72"/>
+      <c r="J142" s="39"/>
+    </row>
+    <row r="143" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="94" t="str">
+        <f>RIGHT(D143:D260,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E143" s="24"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23">
+        <f>E143*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H143" s="14"/>
+      <c r="I143" s="72"/>
+      <c r="J143" s="39"/>
+    </row>
+    <row r="144" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="94" t="str">
+        <f t="shared" ref="A144:A155" si="1">RIGHT(D144:D259,4)</f>
+        <v>6313</v>
+      </c>
+      <c r="B144" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" s="28">
+        <v>1002112606313</v>
+      </c>
+      <c r="E144" s="24"/>
+      <c r="F144" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="G144" s="23">
+        <f>E144*0.9</f>
+        <v>0</v>
+      </c>
+      <c r="H144" s="14">
+        <v>9</v>
+      </c>
+      <c r="I144" s="72">
+        <v>120</v>
+      </c>
+      <c r="J144" s="39"/>
+    </row>
+    <row r="145" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B142" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="C142" s="74"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="74"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="74"/>
-      <c r="H142" s="74"/>
-      <c r="I142" s="74"/>
-      <c r="J142" s="75"/>
-    </row>
-    <row r="143" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="94" t="str">
+      <c r="B145" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C145" s="74"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="74"/>
+      <c r="F145" s="73"/>
+      <c r="G145" s="74"/>
+      <c r="H145" s="74"/>
+      <c r="I145" s="74"/>
+      <c r="J145" s="75"/>
+    </row>
+    <row r="146" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="94" t="str">
         <f t="shared" si="1"/>
         <v>4945</v>
       </c>
-      <c r="B143" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C143" s="36" t="s">
+      <c r="B146" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C146" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D143" s="28">
+      <c r="D146" s="28">
         <v>1002151784945</v>
       </c>
-      <c r="E143" s="24"/>
-      <c r="F143" s="23">
+      <c r="E146" s="24"/>
+      <c r="F146" s="23">
         <v>0.5</v>
       </c>
-      <c r="G143" s="23">
-        <f>E143*0.5</f>
+      <c r="G146" s="23">
+        <f>E146*0.5</f>
         <v>0</v>
       </c>
-      <c r="H143" s="14">
+      <c r="H146" s="14">
         <v>8</v>
       </c>
-      <c r="I143" s="72">
+      <c r="I146" s="72">
         <v>120</v>
       </c>
-      <c r="J143" s="39"/>
-    </row>
-    <row r="144" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="94" t="str">
+      <c r="J146" s="39"/>
+    </row>
+    <row r="147" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B144" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="C144" s="74"/>
-      <c r="D144" s="74"/>
-      <c r="E144" s="74"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="74"/>
-      <c r="H144" s="74"/>
-      <c r="I144" s="74"/>
-      <c r="J144" s="75"/>
-    </row>
-    <row r="145" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="94" t="str">
+      <c r="B147" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="74"/>
+      <c r="F147" s="73"/>
+      <c r="G147" s="74"/>
+      <c r="H147" s="74"/>
+      <c r="I147" s="74"/>
+      <c r="J147" s="75"/>
+    </row>
+    <row r="148" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="94" t="str">
         <f t="shared" si="1"/>
         <v>4956</v>
       </c>
-      <c r="B145" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="C145" s="90" t="s">
+      <c r="B148" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D145" s="83">
+      <c r="D148" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E145" s="84"/>
-      <c r="F145" s="85">
+      <c r="E148" s="84"/>
+      <c r="F148" s="85">
         <v>0.42</v>
       </c>
-      <c r="G145" s="85">
-        <f>E145*0.42</f>
+      <c r="G148" s="85">
+        <f>E148*0.42</f>
         <v>0</v>
       </c>
-      <c r="H145" s="86">
+      <c r="H148" s="86">
         <v>4.2</v>
       </c>
-      <c r="I145" s="91">
+      <c r="I148" s="91">
         <v>120</v>
       </c>
-      <c r="J145" s="86"/>
-      <c r="K145" s="87"/>
-    </row>
-    <row r="146" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="94" t="str">
+      <c r="J148" s="86"/>
+      <c r="K148" s="87"/>
+    </row>
+    <row r="149" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="94" t="str">
         <f t="shared" si="1"/>
         <v>1762</v>
       </c>
-      <c r="B146" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="C146" s="33" t="s">
+      <c r="B149" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C149" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D146" s="28">
+      <c r="D149" s="28">
         <v>1002131151762</v>
       </c>
-      <c r="E146" s="24"/>
-      <c r="F146" s="23">
+      <c r="E149" s="24"/>
+      <c r="F149" s="23">
         <v>0.42</v>
       </c>
-      <c r="G146" s="23">
-        <f>E146*0.42</f>
+      <c r="G149" s="23">
+        <f>E149*0.42</f>
         <v>0</v>
       </c>
-      <c r="H146" s="14">
+      <c r="H149" s="14">
         <v>4.2</v>
       </c>
-      <c r="I146" s="72">
+      <c r="I149" s="72">
         <v>120</v>
       </c>
-      <c r="J146" s="39"/>
-    </row>
-    <row r="147" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="94" t="str">
+      <c r="J149" s="39"/>
+    </row>
+    <row r="150" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="94" t="str">
         <f t="shared" si="1"/>
         <v>1764</v>
       </c>
-      <c r="B147" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C147" s="36" t="s">
+      <c r="B150" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C150" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D147" s="28">
+      <c r="D150" s="28">
         <v>1002131181764</v>
       </c>
-      <c r="E147" s="24"/>
-      <c r="F147" s="23">
+      <c r="E150" s="24"/>
+      <c r="F150" s="23">
         <v>0.42</v>
       </c>
-      <c r="G147" s="23">
-        <f>E147*0.42</f>
+      <c r="G150" s="23">
+        <f>E150*0.42</f>
         <v>0</v>
       </c>
-      <c r="H147" s="14">
+      <c r="H150" s="14">
         <v>4.2</v>
       </c>
-      <c r="I147" s="72">
+      <c r="I150" s="72">
         <v>120</v>
       </c>
-      <c r="J147" s="39"/>
-    </row>
-    <row r="148" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="94" t="str">
+      <c r="J150" s="39"/>
+    </row>
+    <row r="151" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B148" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C148" s="74"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="74"/>
-      <c r="F148" s="73"/>
-      <c r="G148" s="74"/>
-      <c r="H148" s="74"/>
-      <c r="I148" s="74"/>
-      <c r="J148" s="75"/>
-    </row>
-    <row r="149" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="94" t="str">
+      <c r="B151" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" s="74"/>
+      <c r="D151" s="74"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="73"/>
+      <c r="G151" s="74"/>
+      <c r="H151" s="74"/>
+      <c r="I151" s="74"/>
+      <c r="J151" s="75"/>
+    </row>
+    <row r="152" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B149" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C149" s="74"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="74"/>
-      <c r="H149" s="74"/>
-      <c r="I149" s="74"/>
-      <c r="J149" s="75"/>
-    </row>
-    <row r="150" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="94" t="str">
+      <c r="B152" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" s="74"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="73"/>
+      <c r="G152" s="74"/>
+      <c r="H152" s="74"/>
+      <c r="I152" s="74"/>
+      <c r="J152" s="75"/>
+    </row>
+    <row r="153" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="94" t="str">
         <f t="shared" si="1"/>
         <v>6004</v>
       </c>
-      <c r="B150" s="47" t="s">
+      <c r="B153" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="C150" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="E150" s="24"/>
-      <c r="F150" s="23">
+      <c r="E153" s="24"/>
+      <c r="F153" s="23">
         <v>1</v>
       </c>
-      <c r="G150" s="23">
-        <f>E150*1</f>
+      <c r="G153" s="23">
+        <f>E153*1</f>
         <v>0</v>
       </c>
-      <c r="H150" s="14">
+      <c r="H153" s="14">
         <v>8</v>
       </c>
-      <c r="I150" s="72">
+      <c r="I153" s="72">
         <v>120</v>
       </c>
-      <c r="J150" s="39"/>
-    </row>
-    <row r="151" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="94" t="str">
+      <c r="J153" s="39"/>
+    </row>
+    <row r="154" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="94" t="str">
         <f t="shared" si="1"/>
         <v>5417</v>
       </c>
-      <c r="B151" s="47" t="s">
+      <c r="B154" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="C151" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D151" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="E151" s="24"/>
-      <c r="F151" s="23">
+      <c r="E154" s="24"/>
+      <c r="F154" s="23">
         <v>2</v>
       </c>
-      <c r="G151" s="23">
-        <f>E151*1</f>
+      <c r="G154" s="23">
+        <f>E154*1</f>
         <v>0</v>
       </c>
-      <c r="H151" s="14">
+      <c r="H154" s="14">
         <v>6</v>
       </c>
-      <c r="I151" s="72">
+      <c r="I154" s="72">
         <v>90</v>
       </c>
-      <c r="J151" s="39"/>
-    </row>
-    <row r="152" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="94" t="str">
+      <c r="J154" s="39"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="94" t="str">
         <f t="shared" si="1"/>
         <v>6019</v>
       </c>
-      <c r="B152" s="47" t="s">
+      <c r="B155" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="C152" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D152" s="69" t="s">
+      <c r="E155" s="24"/>
+      <c r="F155" s="23">
+        <v>1</v>
+      </c>
+      <c r="G155" s="23">
+        <f>E155*1</f>
+        <v>0</v>
+      </c>
+      <c r="H155" s="14">
+        <v>12</v>
+      </c>
+      <c r="I155" s="72">
+        <v>120</v>
+      </c>
+      <c r="J155" s="39"/>
+    </row>
+    <row r="156" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="77"/>
+      <c r="B156" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="E152" s="24"/>
-      <c r="F152" s="23">
-        <v>1</v>
-      </c>
-      <c r="G152" s="23">
-        <f>E152*1</f>
+      <c r="C156" s="16"/>
+      <c r="D156" s="48"/>
+      <c r="E156" s="17">
+        <f>SUM(E5:E155)</f>
         <v>0</v>
       </c>
-      <c r="H152" s="14">
-        <v>12</v>
-      </c>
-      <c r="I152" s="72">
-        <v>120</v>
-      </c>
-      <c r="J152" s="39"/>
-    </row>
-    <row r="153" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="77"/>
-      <c r="B153" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="48"/>
-      <c r="E153" s="17">
-        <f>SUM(E5:E152)</f>
+      <c r="F156" s="17">
+        <f>SUM(F10:F155)</f>
+        <v>41.615833333333335</v>
+      </c>
+      <c r="G156" s="17">
+        <f>SUM(G11:G155)</f>
         <v>0</v>
       </c>
-      <c r="F153" s="17">
-        <f>SUM(F10:F152)</f>
-        <v>40.555833333333339</v>
-      </c>
-      <c r="G153" s="17">
-        <f>SUM(G11:G152)</f>
-        <v>0</v>
-      </c>
-      <c r="H153" s="17">
-        <f>SUM(H10:H149)</f>
+      <c r="H156" s="17">
+        <f>SUM(H10:H152)</f>
         <v>144.24999999999994</v>
       </c>
-      <c r="I153" s="17"/>
-      <c r="J153" s="17"/>
-    </row>
-    <row r="154" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="53"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="52"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="21"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="53"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="52"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
-      <c r="J155" s="21"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B156" s="53"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="52"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="20"/>
-      <c r="J156" s="21"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B157" s="53"/>
       <c r="C157" s="18"/>
       <c r="D157" s="52"/>
@@ -20970,17 +21027,47 @@
       <c r="I1677" s="20"/>
       <c r="J1677" s="21"/>
     </row>
+    <row r="1678" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1678" s="53"/>
+      <c r="C1678" s="18"/>
+      <c r="D1678" s="52"/>
+      <c r="F1678" s="19"/>
+      <c r="G1678" s="19"/>
+      <c r="H1678" s="20"/>
+      <c r="I1678" s="20"/>
+      <c r="J1678" s="21"/>
+    </row>
+    <row r="1679" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1679" s="53"/>
+      <c r="C1679" s="18"/>
+      <c r="D1679" s="52"/>
+      <c r="F1679" s="19"/>
+      <c r="G1679" s="19"/>
+      <c r="H1679" s="20"/>
+      <c r="I1679" s="20"/>
+      <c r="J1679" s="21"/>
+    </row>
+    <row r="1680" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1680" s="53"/>
+      <c r="C1680" s="18"/>
+      <c r="D1680" s="52"/>
+      <c r="F1680" s="19"/>
+      <c r="G1680" s="19"/>
+      <c r="H1680" s="20"/>
+      <c r="I1680" s="20"/>
+      <c r="J1680" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J153" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B146" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B149" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D150:D152" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D153:D155" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
@@ -21006,24 +21093,24 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="63"/>
     </row>
@@ -21034,13 +21121,13 @@
     </row>
     <row r="6" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="61"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="81"/>
     </row>
@@ -21051,13 +21138,13 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="81"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -21067,17 +21154,17 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -21094,72 +21181,72 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="62"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="61"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="81"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="61"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="61"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -21169,53 +21256,53 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C31" s="61"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="81"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="81"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" s="61"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -21241,252 +21328,252 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="61"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C48" s="61"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="61"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" s="61"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="61"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="61"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C53" s="61"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="61"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C55" s="81"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C58" s="61"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C59" s="61"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C60" s="81"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="61"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63" s="81"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="61"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" s="61"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C67" s="61"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C68" s="61"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C70" s="61"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C71" s="61"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72" s="81"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" s="81"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" s="81"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" s="81"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C78" s="61"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C79" s="61"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C81" s="61"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C84" s="61"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C85" s="61"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C86" s="61"/>
     </row>

--- a/SIMF/чистый бланк/ЗАКАЗ КРЫМ 03,02,25ц-выезд 05,02.xlsx
+++ b/SIMF/чистый бланк/ЗАКАЗ КРЫМ 03,02,25ц-выезд 05,02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63D77EA-A47B-405B-8379-80EDD9D3CCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9516873D-DD86-4A0B-84F5-BEDBF6F760CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$158</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="234">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -418,9 +418,6 @@
     <t>Копчености варенокопченые</t>
   </si>
   <si>
-    <t>СВИНИНА ПО-ДОМАШНЕМУ к/в мл/к в/у 0.3кг</t>
-  </si>
-  <si>
     <t>ШЕЙКА КОПЧЕНАЯ к/в мл/к в/у 300*6</t>
   </si>
   <si>
@@ -714,6 +711,30 @@
   <si>
     <t>СУПЕР СЫТНЫЕ ПМ сос п/о мгс 0.6кг 8шт.</t>
   </si>
+  <si>
+    <t>ПЕППЕРОНИ с/к с/н мгс 1*2_HRC</t>
+  </si>
+  <si>
+    <t>БЕКОН Останкино с/к с/н в/у 1/180_50с</t>
+  </si>
+  <si>
+    <t>СВИНИНА ПО-ДОМ. к/в мл/к в/у 0.3кг_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг_50с</t>
+  </si>
+  <si>
+    <t>БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_50с</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг_50с</t>
+  </si>
 </sst>
 </file>
 
@@ -722,7 +743,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,6 +920,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C2D2E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1236,7 +1264,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1489,6 +1517,7 @@
     <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="SAPBEXstdItem" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1891,11 +1920,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1680"/>
+  <dimension ref="A1:M1682"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J163" sqref="J163"/>
+      <pane ySplit="9" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2069,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D155,4)</f>
+        <f>RIGHT(D11:D157,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2071,7 +2100,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D156,4)</f>
+        <f>RIGHT(D12:D158,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2096,7 +2125,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D156,4)</f>
+        <f>RIGHT(D13:D158,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2120,7 +2149,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D157,4)</f>
+        <f>RIGHT(D14:D159,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2144,7 +2173,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D158,4)</f>
+        <f>RIGHT(D15:D160,4)</f>
         <v>6247</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2168,7 +2197,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D158,4)</f>
+        <f t="shared" ref="A16:A23" si="0">RIGHT(D16:D160,4)</f>
         <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2198,7 +2227,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D159,4)</f>
+        <f t="shared" si="0"/>
         <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2224,7 +2253,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D160,4)</f>
+        <f t="shared" si="0"/>
         <v>6839</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2250,7 +2279,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D161,4)</f>
+        <f t="shared" si="0"/>
         <v>6426</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2274,7 +2303,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D162,4)</f>
+        <f t="shared" si="0"/>
         <v>4063</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2304,7 +2333,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D163,4)</f>
+        <f t="shared" si="0"/>
         <v>6333</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2334,7 +2363,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D164,4)</f>
+        <f t="shared" si="0"/>
         <v>4574</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2364,7 +2393,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D165,4)</f>
+        <f t="shared" si="0"/>
         <v>6861</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2394,7 +2423,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D169,4)</f>
+        <f>RIGHT(D24:D171,4)</f>
         <v>6862</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2418,7 +2447,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D169,4)</f>
+        <f>RIGHT(D25:D171,4)</f>
         <v>6341</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2442,7 +2471,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D170,4)</f>
+        <f>RIGHT(D26:D172,4)</f>
         <v>5247</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2472,7 +2501,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D173,4)</f>
+        <f>RIGHT(D27:D175,4)</f>
         <v>4813</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2502,7 +2531,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D174,4)</f>
+        <f>RIGHT(D28:D176,4)</f>
         <v>6392</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2532,7 +2561,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D175,4)</f>
+        <f>RIGHT(D29:D177,4)</f>
         <v>6801</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2558,7 +2587,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D176,4)</f>
+        <f>RIGHT(D30:D178,4)</f>
         <v>6802</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2582,7 +2611,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D176,4)</f>
+        <f>RIGHT(D31:D178,4)</f>
         <v>5851</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2612,7 +2641,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D177,4)</f>
+        <f>RIGHT(D32:D179,4)</f>
         <v>6159</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2636,7 +2665,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D177,4)</f>
+        <f>RIGHT(D33:D179,4)</f>
         <v>6158</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2664,7 +2693,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D179,4)</f>
+        <f>RIGHT(D34:D181,4)</f>
         <v>6340</v>
       </c>
       <c r="B34" s="96" t="s">
@@ -2692,7 +2721,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D177,4)</f>
+        <f>RIGHT(D35:D179,4)</f>
         <v>6353</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2722,7 +2751,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D178,4)</f>
+        <f>RIGHT(D36:D180,4)</f>
         <v/>
       </c>
       <c r="B36" s="74" t="s">
@@ -2739,7 +2768,7 @@
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D181,4)</f>
+        <f>RIGHT(D37:D183,4)</f>
         <v>6870</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2764,7 +2793,7 @@
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D183,4)</f>
+        <f>RIGHT(D38:D185,4)</f>
         <v>7038</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2789,7 +2818,7 @@
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D184,4)</f>
+        <f>RIGHT(D39:D186,4)</f>
         <v>7040</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2816,11 +2845,11 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D183,4)</f>
+        <f>RIGHT(D40:D185,4)</f>
         <v>7075</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>23</v>
@@ -2841,11 +2870,11 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D184,4)</f>
+        <f>RIGHT(D41:D186,4)</f>
         <v>7070</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>23</v>
@@ -2866,7 +2895,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D182,4)</f>
+        <f>RIGHT(D42:D184,4)</f>
         <v>6253</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2891,7 +2920,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D181,4)</f>
+        <f>RIGHT(D43:D183,4)</f>
         <v>6602</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2916,7 +2945,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D184,4)</f>
+        <f>RIGHT(D44:D186,4)</f>
         <v>6768</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -2941,7 +2970,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D185,4)</f>
+        <f>RIGHT(D45:D187,4)</f>
         <v>6770</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -2966,7 +2995,7 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D188,4)</f>
+        <f>RIGHT(D46:D190,4)</f>
         <v>6829</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -2990,11 +3019,11 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D193,4)</f>
+        <f>RIGHT(D47:D195,4)</f>
         <v>7074</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>26</v>
@@ -3014,11 +3043,11 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D194,4)</f>
+        <f>RIGHT(D48:D196,4)</f>
         <v>7073</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>26</v>
@@ -3038,7 +3067,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D195,4)</f>
+        <f>RIGHT(D49:D197,4)</f>
         <v>6759</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3062,7 +3091,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D196,4)</f>
+        <f>RIGHT(D50:D198,4)</f>
         <v>6724</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3088,11 +3117,11 @@
     </row>
     <row r="51" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D197,4)</f>
+        <f>RIGHT(D51:D199,4)</f>
         <v>6616</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>26</v>
@@ -3115,7 +3144,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D196,4)</f>
+        <f>RIGHT(D52:D198,4)</f>
         <v>6901</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3141,11 +3170,11 @@
     </row>
     <row r="53" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D197,4)</f>
+        <f>RIGHT(D53:D199,4)</f>
         <v>6962</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>26</v>
@@ -3168,7 +3197,7 @@
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D195,4)</f>
+        <f>RIGHT(D54:D197,4)</f>
         <v>6303</v>
       </c>
       <c r="B54" s="70" t="s">
@@ -3199,11 +3228,11 @@
     </row>
     <row r="55" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D196,4)</f>
+        <f>RIGHT(D55:D198,4)</f>
         <v>7077</v>
       </c>
       <c r="B55" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>26</v>
@@ -3224,11 +3253,11 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D196,4)</f>
+        <f>RIGHT(D56:D198,4)</f>
         <v>7080</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>26</v>
@@ -3254,7 +3283,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D197,4)</f>
+        <f>RIGHT(D57:D199,4)</f>
         <v>6762</v>
       </c>
       <c r="B57" s="45" t="s">
@@ -3280,7 +3309,7 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D197,4)</f>
+        <f>RIGHT(D58:D199,4)</f>
         <v>5820</v>
       </c>
       <c r="B58" s="45" t="s">
@@ -3306,11 +3335,11 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D198,4)</f>
+        <f>RIGHT(D59:D200,4)</f>
         <v>7082</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>23</v>
@@ -3330,7 +3359,7 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D199,4)</f>
+        <f>RIGHT(D60:D201,4)</f>
         <v>6764</v>
       </c>
       <c r="B60" s="45" t="s">
@@ -3354,7 +3383,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D201,4)</f>
+        <f>RIGHT(D61:D203,4)</f>
         <v>6761</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3378,7 +3407,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D202,4)</f>
+        <f>RIGHT(D62:D204,4)</f>
         <v>6767</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3402,7 +3431,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D202,4)</f>
+        <f>RIGHT(D63:D204,4)</f>
         <v>6765</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3426,7 +3455,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D203,4)</f>
+        <f>RIGHT(D64:D205,4)</f>
         <v>6909</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3452,11 +3481,11 @@
     </row>
     <row r="65" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D204,4)</f>
+        <f>RIGHT(D65:D206,4)</f>
         <v>6987</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>26</v>
@@ -3479,11 +3508,11 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D202,4)</f>
+        <f>RIGHT(D66:D204,4)</f>
         <v>7066</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>26</v>
@@ -3509,7 +3538,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D203,4)</f>
+        <f>RIGHT(D67:D205,4)</f>
         <v>6837</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3535,7 +3564,7 @@
     </row>
     <row r="68" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D205,4)</f>
+        <f>RIGHT(D68:D207,4)</f>
         <v>6661</v>
       </c>
       <c r="B68" s="27" t="s">
@@ -3560,7 +3589,7 @@
     </row>
     <row r="69" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D206,4)</f>
+        <f>RIGHT(D69:D208,4)</f>
         <v>6713</v>
       </c>
       <c r="B69" s="27" t="s">
@@ -3585,7 +3614,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D202,4)</f>
+        <f>RIGHT(D70:D204,4)</f>
         <v/>
       </c>
       <c r="B70" s="74" t="s">
@@ -3602,7 +3631,7 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
-        <f>RIGHT(D71:D203,4)</f>
+        <f>RIGHT(D71:D205,4)</f>
         <v>5698</v>
       </c>
       <c r="B71" s="46" t="s">
@@ -3632,7 +3661,7 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D206,4)</f>
+        <f>RIGHT(D72:D208,4)</f>
         <v>6528</v>
       </c>
       <c r="B72" s="46" t="s">
@@ -3656,11 +3685,11 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D207,4)</f>
+        <f>RIGHT(D73:D209,4)</f>
         <v>7059</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>26</v>
@@ -3682,7 +3711,7 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D207,4)</f>
+        <f>RIGHT(D74:D209,4)</f>
         <v>6609</v>
       </c>
       <c r="B74" s="46" t="s">
@@ -3708,11 +3737,11 @@
     </row>
     <row r="75" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D208,4)</f>
+        <f>RIGHT(D75:D210,4)</f>
         <v>7001</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>23</v>
@@ -3735,7 +3764,7 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D208,4)</f>
+        <f>RIGHT(D76:D210,4)</f>
         <v>6527</v>
       </c>
       <c r="B76" s="46" t="s">
@@ -3765,7 +3794,7 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D209,4)</f>
+        <f>RIGHT(D77:D211,4)</f>
         <v/>
       </c>
       <c r="B77" s="74" t="s">
@@ -3782,37 +3811,35 @@
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D210,4)</f>
-        <v>6666</v>
+        <f>RIGHT(D78:D212,4)</f>
+        <v>7173</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="28">
-        <v>1001302276666</v>
+        <v>1001302277173</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23">
         <v>0.28000000000000003</v>
       </c>
       <c r="G78" s="23">
-        <f>E78*0.28</f>
+        <f>E78*F78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H78" s="14"/>
       <c r="I78" s="14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J78" s="39"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="94" t="str">
-        <f>RIGHT(D79:D211,4)</f>
+        <f>RIGHT(D79:D213,4)</f>
         <v>6785</v>
       </c>
       <c r="B79" s="27" t="s">
@@ -3836,17 +3863,17 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D212,4)</f>
-        <v>6415</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>81</v>
+        <f>RIGHT(D80:D214,4)</f>
+        <v>7149</v>
+      </c>
+      <c r="B80" s="102" t="s">
+        <v>233</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D80" s="28">
-        <v>1001303636415</v>
+        <v>1001303637149</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="23">
@@ -3857,12 +3884,14 @@
         <v>0</v>
       </c>
       <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
+      <c r="I80" s="14">
+        <v>50</v>
+      </c>
       <c r="J80" s="39"/>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D212,4)</f>
+        <f>RIGHT(D81:D214,4)</f>
         <v>6786</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -3886,7 +3915,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94" t="str">
-        <f>RIGHT(D82:D213,4)</f>
+        <f>RIGHT(D82:D215,4)</f>
         <v>4903</v>
       </c>
       <c r="B82" s="27" t="s">
@@ -3910,7 +3939,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D213,4)</f>
+        <f>RIGHT(D83:D215,4)</f>
         <v>6794</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -3936,7 +3965,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="94" t="str">
-        <f>RIGHT(D84:D211,4)</f>
+        <f>RIGHT(D84:D213,4)</f>
         <v>6773</v>
       </c>
       <c r="B84" s="27" t="s">
@@ -3966,7 +3995,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="94" t="str">
-        <f>RIGHT(D85:D214,4)</f>
+        <f>RIGHT(D85:D216,4)</f>
         <v/>
       </c>
       <c r="B85" s="74" t="s">
@@ -3983,17 +4012,17 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
-        <f>RIGHT(D86:D215,4)</f>
-        <v>6683</v>
+        <f>RIGHT(D86:D217,4)</f>
+        <v>7154</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="28">
-        <v>1001300386683</v>
+        <v>1001300387154</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="23">
@@ -4003,17 +4032,15 @@
         <f>E86*0.35</f>
         <v>0</v>
       </c>
-      <c r="H86" s="14">
-        <v>2.8</v>
-      </c>
+      <c r="H86" s="14"/>
       <c r="I86" s="14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J86" s="39"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D217,4)</f>
+        <f>RIGHT(D87:D219,4)</f>
         <v>6793</v>
       </c>
       <c r="B87" s="27" t="s">
@@ -4037,7 +4064,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
-        <f>RIGHT(D88:D218,4)</f>
+        <f>RIGHT(D88:D220,4)</f>
         <v>6795</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -4061,7 +4088,7 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
-        <f>RIGHT(D89:D218,4)</f>
+        <f>RIGHT(D89:D220,4)</f>
         <v>6807</v>
       </c>
       <c r="B89" s="27" t="s">
@@ -4085,7 +4112,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
-        <f>RIGHT(D90:D218,4)</f>
+        <f>RIGHT(D90:D220,4)</f>
         <v>6684</v>
       </c>
       <c r="B90" s="27" t="s">
@@ -4115,7 +4142,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
-        <f>RIGHT(D91:D220,4)</f>
+        <f>RIGHT(D91:D222,4)</f>
         <v>6787</v>
       </c>
       <c r="B91" s="27" t="s">
@@ -4139,7 +4166,7 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D221,4)</f>
+        <f>RIGHT(D92:D223,4)</f>
         <v>6788</v>
       </c>
       <c r="B92" s="27" t="s">
@@ -4163,7 +4190,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
-        <f>RIGHT(D93:D222,4)</f>
+        <f>RIGHT(D93:D224,4)</f>
         <v>6790</v>
       </c>
       <c r="B93" s="27" t="s">
@@ -4187,37 +4214,35 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
-        <f>RIGHT(D94:D221,4)</f>
-        <v>6689</v>
+        <f>RIGHT(D94:D223,4)</f>
+        <v>7169</v>
       </c>
       <c r="B94" s="64" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D94" s="28">
-        <v>1001303986689</v>
+        <v>1001303987169</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="23">
         <v>0.35</v>
       </c>
       <c r="G94" s="23">
-        <f>E94*0.35</f>
+        <f>E94*F94</f>
         <v>0</v>
       </c>
-      <c r="H94" s="14">
-        <v>2.8</v>
-      </c>
+      <c r="H94" s="14"/>
       <c r="I94" s="14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J94" s="39"/>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="94" t="str">
-        <f>RIGHT(D95:D222,4)</f>
+        <f>RIGHT(D95:D224,4)</f>
         <v>6791</v>
       </c>
       <c r="B95" s="64" t="s">
@@ -4241,37 +4266,33 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="94" t="str">
-        <f>RIGHT(D96:D223,4)</f>
-        <v>5341</v>
+        <f>RIGHT(D96:D225,4)</f>
+        <v>7166</v>
       </c>
       <c r="B96" s="64" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="C96" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D96" s="28">
-        <v>1001053985341</v>
+        <v>1001303987166</v>
       </c>
       <c r="E96" s="24"/>
-      <c r="F96" s="23">
-        <v>0.71250000000000002</v>
-      </c>
+      <c r="F96" s="23"/>
       <c r="G96" s="23">
         <f>E96*1</f>
         <v>0</v>
       </c>
-      <c r="H96" s="14">
-        <v>5.7</v>
-      </c>
+      <c r="H96" s="14"/>
       <c r="I96" s="14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J96" s="39"/>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="94" t="str">
-        <f>RIGHT(D97:D224,4)</f>
+        <f>RIGHT(D97:D226,4)</f>
         <v>6459</v>
       </c>
       <c r="B97" s="64" t="s">
@@ -4297,7 +4318,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
-        <f>RIGHT(D98:D225,4)</f>
+        <f>RIGHT(D98:D227,4)</f>
         <v>6586</v>
       </c>
       <c r="B98" s="64" t="s">
@@ -4321,7 +4342,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
-        <f>RIGHT(D99:D223,4)</f>
+        <f>RIGHT(D99:D225,4)</f>
         <v>6228</v>
       </c>
       <c r="B99" s="64" t="s">
@@ -4345,7 +4366,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
-        <f>RIGHT(D100:D223,4)</f>
+        <f>RIGHT(D100:D225,4)</f>
         <v>5544</v>
       </c>
       <c r="B100" s="27" t="s">
@@ -4375,7 +4396,7 @@
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D225,4)</f>
+        <f t="shared" ref="A101:A106" si="1">RIGHT(D101:D227,4)</f>
         <v>6697</v>
       </c>
       <c r="B101" s="27" t="s">
@@ -4405,7 +4426,7 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="94" t="str">
-        <f>RIGHT(D102:D226,4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B102" s="74" t="s">
@@ -4422,7 +4443,7 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D227,4)</f>
+        <f t="shared" si="1"/>
         <v>5706</v>
       </c>
       <c r="B103" s="27" t="s">
@@ -4452,7 +4473,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
-        <f>RIGHT(D104:D228,4)</f>
+        <f t="shared" si="1"/>
         <v>6454</v>
       </c>
       <c r="B104" s="27" t="s">
@@ -4482,7 +4503,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="94" t="str">
-        <f>RIGHT(D105:D229,4)</f>
+        <f t="shared" si="1"/>
         <v>6222</v>
       </c>
       <c r="B105" s="27" t="s">
@@ -4506,7 +4527,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="str">
-        <f>RIGHT(D106:D230,4)</f>
+        <f t="shared" si="1"/>
         <v>5931</v>
       </c>
       <c r="B106" s="27" t="s">
@@ -4536,7 +4557,7 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
-        <f>RIGHT(D107:D232,4)</f>
+        <f>RIGHT(D107:D234,4)</f>
         <v>5708</v>
       </c>
       <c r="B107" s="27" t="s">
@@ -4566,7 +4587,7 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="94" t="str">
-        <f>RIGHT(D108:D233,4)</f>
+        <f>RIGHT(D108:D235,4)</f>
         <v>1146</v>
       </c>
       <c r="B108" s="27" t="s">
@@ -4590,7 +4611,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
-        <f>RIGHT(D109:D233,4)</f>
+        <f>RIGHT(D109:D235,4)</f>
         <v>6834</v>
       </c>
       <c r="B109" s="27" t="s">
@@ -4614,7 +4635,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="str">
-        <f>RIGHT(D110:D234,4)</f>
+        <f>RIGHT(D110:D236,4)</f>
         <v>6448</v>
       </c>
       <c r="B110" s="27" t="s">
@@ -4640,7 +4661,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="94" t="str">
-        <f>RIGHT(D111:D235,4)</f>
+        <f>RIGHT(D111:D237,4)</f>
         <v>6221</v>
       </c>
       <c r="B111" s="27" t="s">
@@ -4666,7 +4687,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="94" t="str">
-        <f>RIGHT(D112:D235,4)</f>
+        <f>RIGHT(D112:D237,4)</f>
         <v>5679</v>
       </c>
       <c r="B112" s="27" t="s">
@@ -4692,7 +4713,7 @@
     </row>
     <row r="113" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="94" t="str">
-        <f>RIGHT(D113:D237,4)</f>
+        <f>RIGHT(D113:D239,4)</f>
         <v>4993</v>
       </c>
       <c r="B113" s="27" t="s">
@@ -4722,7 +4743,7 @@
     </row>
     <row r="114" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="94" t="str">
-        <f>RIGHT(D114:D238,4)</f>
+        <f>RIGHT(D114:D240,4)</f>
         <v>3684</v>
       </c>
       <c r="B114" s="27" t="s">
@@ -4748,7 +4769,7 @@
     </row>
     <row r="115" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
-        <f>RIGHT(D115:D238,4)</f>
+        <f>RIGHT(D115:D240,4)</f>
         <v>5682</v>
       </c>
       <c r="B115" s="27" t="s">
@@ -4778,7 +4799,7 @@
     </row>
     <row r="116" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="94" t="str">
-        <f>RIGHT(D116:D241,4)</f>
+        <f>RIGHT(D116:D243,4)</f>
         <v>4117</v>
       </c>
       <c r="B116" s="27" t="s">
@@ -4808,7 +4829,7 @@
     </row>
     <row r="117" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="94" t="str">
-        <f>RIGHT(D117:D242,4)</f>
+        <f>RIGHT(D117:D244,4)</f>
         <v>3680</v>
       </c>
       <c r="B117" s="27" t="s">
@@ -4832,7 +4853,7 @@
     </row>
     <row r="118" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="94" t="str">
-        <f>RIGHT(D118:D242,4)</f>
+        <f>RIGHT(D118:D244,4)</f>
         <v>5483</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -4862,7 +4883,7 @@
     </row>
     <row r="119" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="94" t="str">
-        <f>RIGHT(D119:D243,4)</f>
+        <f>RIGHT(D119:D245,4)</f>
         <v>6453</v>
       </c>
       <c r="B119" s="27" t="s">
@@ -4892,7 +4913,7 @@
     </row>
     <row r="120" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="94" t="str">
-        <f>RIGHT(D120:D244,4)</f>
+        <f>RIGHT(D120:D246,4)</f>
         <v/>
       </c>
       <c r="B120" s="74" t="s">
@@ -4909,7 +4930,7 @@
     </row>
     <row r="121" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A121" s="94" t="str">
-        <f>RIGHT(D121:D248,4)</f>
+        <f>RIGHT(D121:D250,4)</f>
         <v>6470</v>
       </c>
       <c r="B121" s="29" t="s">
@@ -4933,7 +4954,7 @@
     </row>
     <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="94" t="str">
-        <f>RIGHT(D122:D249,4)</f>
+        <f>RIGHT(D122:D251,4)</f>
         <v>6495</v>
       </c>
       <c r="B122" s="29" t="s">
@@ -4959,7 +4980,7 @@
     </row>
     <row r="123" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="94" t="str">
-        <f>RIGHT(D123:D250,4)</f>
+        <f>RIGHT(D123:D252,4)</f>
         <v>7035</v>
       </c>
       <c r="B123" s="29" t="s">
@@ -4985,11 +5006,11 @@
     </row>
     <row r="124" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="94" t="str">
-        <f>RIGHT(D124:D251,4)</f>
+        <f>RIGHT(D124:D253,4)</f>
         <v>6411</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C124" s="32" t="s">
         <v>26</v>
@@ -5012,7 +5033,7 @@
     </row>
     <row r="125" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="94" t="str">
-        <f>RIGHT(D125:D249,4)</f>
+        <f>RIGHT(D125:D251,4)</f>
         <v>6866</v>
       </c>
       <c r="B125" s="29" t="s">
@@ -5036,7 +5057,7 @@
     </row>
     <row r="126" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="94" t="str">
-        <f>RIGHT(D126:D246,4)</f>
+        <f>RIGHT(D126:D248,4)</f>
         <v>3215</v>
       </c>
       <c r="B126" s="27" t="s">
@@ -5066,7 +5087,7 @@
     </row>
     <row r="127" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="94" t="str">
-        <f>RIGHT(D127:D249,4)</f>
+        <f>RIGHT(D127:D251,4)</f>
         <v/>
       </c>
       <c r="B127" s="74" t="s">
@@ -5083,41 +5104,39 @@
     </row>
     <row r="128" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A128" s="94" t="str">
-        <f>RIGHT(D128:D252,4)</f>
-        <v>6206</v>
+        <f>RIGHT(D128:D254,4)</f>
+        <v>7090</v>
       </c>
       <c r="B128" s="47" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="C128" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001084216206</v>
+        <v>1001084217090</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
         <v>0.3</v>
       </c>
       <c r="G128" s="23">
-        <f>E128*0.3</f>
+        <f>E128*F128</f>
         <v>0</v>
       </c>
-      <c r="H128" s="14">
-        <v>1.8</v>
-      </c>
+      <c r="H128" s="14"/>
       <c r="I128" s="14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J128" s="39"/>
     </row>
     <row r="129" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="94" t="str">
-        <f>RIGHT(D129:D253,4)</f>
+        <f>RIGHT(D129:D255,4)</f>
         <v>4691</v>
       </c>
       <c r="B129" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" s="35" t="s">
         <v>26</v>
@@ -5130,7 +5149,7 @@
         <v>0.3</v>
       </c>
       <c r="G129" s="23">
-        <f t="shared" ref="G129:G137" si="0">F129*E129</f>
+        <f t="shared" ref="G129:G139" si="2">F129*E129</f>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
@@ -5139,11 +5158,11 @@
     </row>
     <row r="130" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="94" t="str">
-        <f>RIGHT(D130:D254,4)</f>
+        <f>RIGHT(D130:D256,4)</f>
         <v>6200</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130" s="35" t="s">
         <v>26</v>
@@ -5156,7 +5175,7 @@
         <v>0.3</v>
       </c>
       <c r="G130" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H130" s="14"/>
@@ -5165,11 +5184,11 @@
     </row>
     <row r="131" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="94" t="str">
-        <f>RIGHT(D131:D255,4)</f>
+        <f>RIGHT(D131:D257,4)</f>
         <v>6201</v>
       </c>
       <c r="B131" s="47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C131" s="35" t="s">
         <v>26</v>
@@ -5182,7 +5201,7 @@
         <v>0.15</v>
       </c>
       <c r="G131" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
@@ -5191,11 +5210,11 @@
     </row>
     <row r="132" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="94" t="str">
-        <f>RIGHT(D132:D255,4)</f>
+        <f>RIGHT(D132:D257,4)</f>
         <v>6842</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132" s="35" t="s">
         <v>26</v>
@@ -5208,7 +5227,7 @@
         <v>0.3</v>
       </c>
       <c r="G132" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
@@ -5217,11 +5236,11 @@
     </row>
     <row r="133" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="94" t="str">
-        <f>RIGHT(D133:D255,4)</f>
+        <f>RIGHT(D133:D257,4)</f>
         <v>6492</v>
       </c>
       <c r="B133" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" s="35" t="s">
         <v>26</v>
@@ -5234,7 +5253,7 @@
         <v>0.3</v>
       </c>
       <c r="G133" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H133" s="14"/>
@@ -5243,11 +5262,11 @@
     </row>
     <row r="134" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="94" t="str">
-        <f>RIGHT(D134:D253,4)</f>
+        <f>RIGHT(D134:D255,4)</f>
         <v>6279</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134" s="35" t="s">
         <v>26</v>
@@ -5260,7 +5279,7 @@
         <v>0.15</v>
       </c>
       <c r="G134" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H134" s="14"/>
@@ -5269,11 +5288,11 @@
     </row>
     <row r="135" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="94" t="str">
-        <f>RIGHT(D135:D254,4)</f>
+        <f>RIGHT(D135:D256,4)</f>
         <v>4786</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="35" t="s">
         <v>26</v>
@@ -5286,7 +5305,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G135" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5295,17 +5314,17 @@
     </row>
     <row r="136" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="94" t="str">
-        <f>RIGHT(D136:D255,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D136:D257,4)</f>
+        <v>7052</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C136" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D136" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
@@ -5320,239 +5339,246 @@
       <c r="J136" s="93"/>
       <c r="K136" s="82"/>
     </row>
-    <row r="137" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="94" t="str">
-        <f>RIGHT(D137:D255,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D137:D257,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B137" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D137" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G137" s="23">
-        <f t="shared" si="0"/>
+        <f>E137</f>
         <v>0</v>
       </c>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
-      <c r="J137" s="39"/>
-    </row>
-    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J137" s="93"/>
+      <c r="K137" s="82"/>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="94" t="str">
-        <f>RIGHT(D138:D253,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B138" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C138" s="35" t="s">
+        <f>RIGHT(D138:D257,4)</f>
+        <v>7092</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C138" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="28">
-        <v>1001223296919</v>
+        <v>1001223297092</v>
       </c>
       <c r="E138" s="24"/>
-      <c r="F138" s="23"/>
+      <c r="F138" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G138" s="23">
-        <f>E138*0.18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
-      <c r="J138" s="93"/>
-    </row>
-    <row r="139" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J138" s="39"/>
+    </row>
+    <row r="139" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="94" t="str">
-        <f>RIGHT(D139:D254,4)</f>
+        <f>RIGHT(D139:D258,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="28">
+        <v>1001223297103</v>
+      </c>
+      <c r="E139" s="24"/>
+      <c r="F139" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="G139" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="93"/>
+      <c r="K139" s="82"/>
+    </row>
+    <row r="140" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="94" t="str">
+        <f>RIGHT(D140:D255,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B140" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E140" s="24"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23">
+        <f>E140*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="93"/>
+    </row>
+    <row r="141" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="94" t="str">
+        <f>RIGHT(D141:D256,4)</f>
         <v/>
       </c>
-      <c r="B139" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="C139" s="74"/>
-      <c r="D139" s="74"/>
-      <c r="E139" s="74"/>
-      <c r="F139" s="73"/>
-      <c r="G139" s="74"/>
-      <c r="H139" s="74"/>
-      <c r="I139" s="74"/>
-      <c r="J139" s="75"/>
-    </row>
-    <row r="140" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="94" t="str">
-        <f>RIGHT(D140:D257,4)</f>
-        <v/>
-      </c>
-      <c r="B140" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C140" s="74"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74"/>
-      <c r="F140" s="73"/>
-      <c r="G140" s="74"/>
-      <c r="H140" s="74"/>
-      <c r="I140" s="74"/>
-      <c r="J140" s="75"/>
-    </row>
-    <row r="141" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="94" t="str">
-        <f>RIGHT(D141:D258,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B141" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D141" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E141" s="24"/>
-      <c r="F141" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G141" s="23">
-        <f>E141*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H141" s="14">
-        <v>8</v>
-      </c>
-      <c r="I141" s="72">
-        <v>120</v>
-      </c>
-      <c r="J141" s="39"/>
-    </row>
-    <row r="142" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="74"/>
+      <c r="F141" s="73"/>
+      <c r="G141" s="74"/>
+      <c r="H141" s="74"/>
+      <c r="I141" s="74"/>
+      <c r="J141" s="75"/>
+    </row>
+    <row r="142" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="94" t="str">
         <f>RIGHT(D142:D259,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B142" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D142" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E142" s="24"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="23">
-        <f>E142*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H142" s="14"/>
-      <c r="I142" s="72"/>
-      <c r="J142" s="39"/>
-    </row>
-    <row r="143" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B142" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C142" s="74"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="74"/>
+      <c r="F142" s="73"/>
+      <c r="G142" s="74"/>
+      <c r="H142" s="74"/>
+      <c r="I142" s="74"/>
+      <c r="J142" s="75"/>
+    </row>
+    <row r="143" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A143" s="94" t="str">
         <f>RIGHT(D143:D260,4)</f>
-        <v>6157</v>
+        <v>6314</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C143" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D143" s="28">
+        <v>1002112606314</v>
+      </c>
+      <c r="E143" s="24"/>
+      <c r="F143" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G143" s="23">
+        <f>E143*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H143" s="14">
+        <v>8</v>
+      </c>
+      <c r="I143" s="72">
+        <v>120</v>
+      </c>
+      <c r="J143" s="39"/>
+    </row>
+    <row r="144" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="94" t="str">
+        <f>RIGHT(D144:D261,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B144" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E144" s="24"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23">
+        <f>E144*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H144" s="14"/>
+      <c r="I144" s="72"/>
+      <c r="J144" s="39"/>
+    </row>
+    <row r="145" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="94" t="str">
+        <f>RIGHT(D145:D262,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B145" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="28">
         <v>1002115056157</v>
       </c>
-      <c r="E143" s="24"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="23">
-        <f>E143*0.45</f>
+      <c r="E145" s="24"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23">
+        <f>E145*0.45</f>
         <v>0</v>
       </c>
-      <c r="H143" s="14"/>
-      <c r="I143" s="72"/>
-      <c r="J143" s="39"/>
-    </row>
-    <row r="144" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="94" t="str">
-        <f t="shared" ref="A144:A155" si="1">RIGHT(D144:D259,4)</f>
+      <c r="H145" s="14"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="39"/>
+    </row>
+    <row r="146" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="94" t="str">
+        <f t="shared" ref="A146:A157" si="3">RIGHT(D146:D261,4)</f>
         <v>6313</v>
       </c>
-      <c r="B144" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="C144" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D144" s="28">
-        <v>1002112606313</v>
-      </c>
-      <c r="E144" s="24"/>
-      <c r="F144" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="G144" s="23">
-        <f>E144*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="H144" s="14">
-        <v>9</v>
-      </c>
-      <c r="I144" s="72">
-        <v>120</v>
-      </c>
-      <c r="J144" s="39"/>
-    </row>
-    <row r="145" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B145" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="C145" s="74"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="74"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="74"/>
-      <c r="H145" s="74"/>
-      <c r="I145" s="74"/>
-      <c r="J145" s="75"/>
-    </row>
-    <row r="146" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>4945</v>
-      </c>
       <c r="B146" s="47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C146" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="28">
-        <v>1002151784945</v>
+        <v>1002112606313</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G146" s="23">
-        <f>E146*0.5</f>
+        <f>E146*0.9</f>
         <v>0</v>
       </c>
       <c r="H146" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I146" s="72">
         <v>120</v>
@@ -5561,11 +5587,11 @@
     </row>
     <row r="147" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B147" s="74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C147" s="74"/>
       <c r="D147" s="74"/>
@@ -5576,204 +5602,191 @@
       <c r="I147" s="74"/>
       <c r="J147" s="75"/>
     </row>
-    <row r="148" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>4945</v>
+      </c>
+      <c r="B148" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C148" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E148" s="24"/>
+      <c r="F148" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G148" s="23">
+        <f>E148*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H148" s="14">
+        <v>8</v>
+      </c>
+      <c r="I148" s="72">
+        <v>120</v>
+      </c>
+      <c r="J148" s="39"/>
+    </row>
+    <row r="149" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B149" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="74"/>
+      <c r="H149" s="74"/>
+      <c r="I149" s="74"/>
+      <c r="J149" s="75"/>
+    </row>
+    <row r="150" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="94" t="str">
+        <f t="shared" si="3"/>
         <v>4956</v>
       </c>
-      <c r="B148" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="C148" s="90" t="s">
+      <c r="B150" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D148" s="83">
+      <c r="D150" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E148" s="84"/>
-      <c r="F148" s="85">
+      <c r="E150" s="84"/>
+      <c r="F150" s="85">
         <v>0.42</v>
       </c>
-      <c r="G148" s="85">
-        <f>E148*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H148" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I148" s="91">
-        <v>120</v>
-      </c>
-      <c r="J148" s="86"/>
-      <c r="K148" s="87"/>
-    </row>
-    <row r="149" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>1762</v>
-      </c>
-      <c r="B149" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C149" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E149" s="24"/>
-      <c r="F149" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G149" s="23">
-        <f>E149*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H149" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I149" s="72">
-        <v>120</v>
-      </c>
-      <c r="J149" s="39"/>
-    </row>
-    <row r="150" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>1764</v>
-      </c>
-      <c r="B150" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="C150" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E150" s="24"/>
-      <c r="F150" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G150" s="23">
+      <c r="G150" s="85">
         <f>E150*0.42</f>
         <v>0</v>
       </c>
-      <c r="H150" s="14">
+      <c r="H150" s="86">
         <v>4.2</v>
       </c>
-      <c r="I150" s="72">
+      <c r="I150" s="91">
         <v>120</v>
       </c>
-      <c r="J150" s="39"/>
-    </row>
-    <row r="151" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J150" s="86"/>
+      <c r="K150" s="87"/>
+    </row>
+    <row r="151" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A151" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B151" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="74"/>
-      <c r="D151" s="74"/>
-      <c r="E151" s="74"/>
-      <c r="F151" s="73"/>
-      <c r="G151" s="74"/>
-      <c r="H151" s="74"/>
-      <c r="I151" s="74"/>
-      <c r="J151" s="75"/>
-    </row>
-    <row r="152" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1762</v>
+      </c>
+      <c r="B151" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E151" s="24"/>
+      <c r="F151" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G151" s="23">
+        <f>E151*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H151" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I151" s="72">
+        <v>120</v>
+      </c>
+      <c r="J151" s="39"/>
+    </row>
+    <row r="152" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B152" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C152" s="74"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="74"/>
-      <c r="F152" s="73"/>
-      <c r="G152" s="74"/>
-      <c r="H152" s="74"/>
-      <c r="I152" s="74"/>
-      <c r="J152" s="75"/>
+        <f t="shared" si="3"/>
+        <v>1764</v>
+      </c>
+      <c r="B152" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C152" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E152" s="24"/>
+      <c r="F152" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G152" s="23">
+        <f>E152*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H152" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I152" s="72">
+        <v>120</v>
+      </c>
+      <c r="J152" s="39"/>
     </row>
     <row r="153" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B153" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C153" s="74"/>
+      <c r="D153" s="74"/>
+      <c r="E153" s="74"/>
+      <c r="F153" s="73"/>
+      <c r="G153" s="74"/>
+      <c r="H153" s="74"/>
+      <c r="I153" s="74"/>
+      <c r="J153" s="75"/>
+    </row>
+    <row r="154" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B154" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="73"/>
+      <c r="G154" s="74"/>
+      <c r="H154" s="74"/>
+      <c r="I154" s="74"/>
+      <c r="J154" s="75"/>
+    </row>
+    <row r="155" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="94" t="str">
+        <f t="shared" si="3"/>
         <v>6004</v>
       </c>
-      <c r="B153" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="C153" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D153" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="E153" s="24"/>
-      <c r="F153" s="23">
-        <v>1</v>
-      </c>
-      <c r="G153" s="23">
-        <f>E153*1</f>
-        <v>0</v>
-      </c>
-      <c r="H153" s="14">
-        <v>8</v>
-      </c>
-      <c r="I153" s="72">
-        <v>120</v>
-      </c>
-      <c r="J153" s="39"/>
-    </row>
-    <row r="154" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>5417</v>
-      </c>
-      <c r="B154" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C154" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D154" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="E154" s="24"/>
-      <c r="F154" s="23">
-        <v>2</v>
-      </c>
-      <c r="G154" s="23">
-        <f>E154*1</f>
-        <v>0</v>
-      </c>
-      <c r="H154" s="14">
-        <v>6</v>
-      </c>
-      <c r="I154" s="72">
-        <v>90</v>
-      </c>
-      <c r="J154" s="39"/>
-    </row>
-    <row r="155" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6019</v>
-      </c>
       <c r="B155" s="47" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C155" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D155" s="69" t="s">
-        <v>156</v>
+      <c r="D155" s="68" t="s">
+        <v>151</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="23">
@@ -5784,60 +5797,100 @@
         <v>0</v>
       </c>
       <c r="H155" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I155" s="72">
         <v>120</v>
       </c>
       <c r="J155" s="39"/>
     </row>
-    <row r="156" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="77"/>
-      <c r="B156" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" s="16"/>
-      <c r="D156" s="48"/>
-      <c r="E156" s="17">
-        <f>SUM(E5:E155)</f>
+    <row r="156" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v>5417</v>
+      </c>
+      <c r="B156" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D156" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="E156" s="24"/>
+      <c r="F156" s="23">
+        <v>2</v>
+      </c>
+      <c r="G156" s="23">
+        <f>E156*1</f>
         <v>0</v>
       </c>
-      <c r="F156" s="17">
-        <f>SUM(F10:F155)</f>
-        <v>41.615833333333335</v>
-      </c>
-      <c r="G156" s="17">
-        <f>SUM(G11:G155)</f>
+      <c r="H156" s="14">
+        <v>6</v>
+      </c>
+      <c r="I156" s="72">
+        <v>90</v>
+      </c>
+      <c r="J156" s="39"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v>6019</v>
+      </c>
+      <c r="B157" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="E157" s="24"/>
+      <c r="F157" s="23">
+        <v>1</v>
+      </c>
+      <c r="G157" s="23">
+        <f>E157*1</f>
         <v>0</v>
       </c>
-      <c r="H156" s="17">
-        <f>SUM(H10:H152)</f>
-        <v>144.24999999999994</v>
-      </c>
-      <c r="I156" s="17"/>
-      <c r="J156" s="17"/>
-    </row>
-    <row r="157" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="53"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="52"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="21"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="53"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="52"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
-      <c r="J158" s="21"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H157" s="14">
+        <v>12</v>
+      </c>
+      <c r="I157" s="72">
+        <v>120</v>
+      </c>
+      <c r="J157" s="39"/>
+    </row>
+    <row r="158" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="77"/>
+      <c r="B158" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C158" s="16"/>
+      <c r="D158" s="48"/>
+      <c r="E158" s="17">
+        <f>SUM(E5:E157)</f>
+        <v>0</v>
+      </c>
+      <c r="F158" s="17">
+        <f>SUM(F10:F157)</f>
+        <v>42.083333333333343</v>
+      </c>
+      <c r="G158" s="17">
+        <f>SUM(G11:G157)</f>
+        <v>0</v>
+      </c>
+      <c r="H158" s="17">
+        <f>SUM(H10:H154)</f>
+        <v>128.91</v>
+      </c>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B159" s="53"/>
       <c r="C159" s="18"/>
       <c r="D159" s="52"/>
@@ -21057,23 +21110,43 @@
       <c r="I1680" s="20"/>
       <c r="J1680" s="21"/>
     </row>
+    <row r="1681" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1681" s="53"/>
+      <c r="C1681" s="18"/>
+      <c r="D1681" s="52"/>
+      <c r="F1681" s="19"/>
+      <c r="G1681" s="19"/>
+      <c r="H1681" s="20"/>
+      <c r="I1681" s="20"/>
+      <c r="J1681" s="21"/>
+    </row>
+    <row r="1682" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1682" s="53"/>
+      <c r="C1682" s="18"/>
+      <c r="D1682" s="52"/>
+      <c r="F1682" s="19"/>
+      <c r="G1682" s="19"/>
+      <c r="H1682" s="20"/>
+      <c r="I1682" s="20"/>
+      <c r="J1682" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J158" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B149" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B151" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D153:D155" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D155:D157" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21098,19 +21171,19 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="63"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="63"/>
     </row>
@@ -21127,7 +21200,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="81"/>
     </row>
@@ -21138,13 +21211,13 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="81"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -21159,12 +21232,12 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -21181,12 +21254,12 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="62"/>
     </row>
@@ -21203,13 +21276,13 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="81"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="61"/>
     </row>
@@ -21235,7 +21308,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -21256,53 +21329,53 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="61"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C32" s="81"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" s="61"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C34" s="61"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="81"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C38" s="61"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -21338,7 +21411,7 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46" s="61"/>
     </row>
@@ -21349,7 +21422,7 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" s="61"/>
     </row>
@@ -21361,7 +21434,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C50" s="61"/>
     </row>
@@ -21373,13 +21446,13 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C52" s="61"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53" s="61"/>
     </row>
@@ -21391,7 +21464,7 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C55" s="81"/>
     </row>
@@ -21407,19 +21480,19 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C58" s="61"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C59" s="61"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C60" s="81"/>
     </row>
@@ -21436,7 +21509,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C63" s="81"/>
     </row>
@@ -21447,133 +21520,133 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" s="61"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C66" s="61"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C67" s="61"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C68" s="61"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C69" s="61"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C70" s="61"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C71" s="61"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C72" s="81"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C73" s="81"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C74" s="81"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C75" s="81"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76" s="61"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C77" s="61"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C78" s="61"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C79" s="61"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C80" s="61"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C81" s="61"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C82" s="61"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="61"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C84" s="61"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C85" s="61"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C86" s="61"/>
     </row>
